--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.67302318899624</v>
+        <v>26.67302318899634</v>
       </c>
       <c r="C2">
-        <v>29.40725011604412</v>
+        <v>29.40725011604433</v>
       </c>
       <c r="D2">
-        <v>7.430860371046928</v>
+        <v>7.430860371046862</v>
       </c>
       <c r="E2">
-        <v>11.06154182998177</v>
+        <v>11.06154182998181</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.76305002017918</v>
+        <v>64.76305002017938</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.83534409642909</v>
+        <v>18.83534409642921</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.44945855182284</v>
+        <v>24.44945855182278</v>
       </c>
       <c r="C3">
-        <v>27.06175994981698</v>
+        <v>27.06175994981703</v>
       </c>
       <c r="D3">
-        <v>6.848048328572405</v>
+        <v>6.84804832857246</v>
       </c>
       <c r="E3">
-        <v>10.18946343254963</v>
+        <v>10.18946343254957</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.34605087781127</v>
+        <v>60.34605087781149</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.33794675341206</v>
+        <v>17.33794675341201</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.0560199238188</v>
+        <v>23.05601992381893</v>
       </c>
       <c r="C4">
-        <v>25.58433916919418</v>
+        <v>25.58433916919449</v>
       </c>
       <c r="D4">
-        <v>6.479681879314866</v>
+        <v>6.479681879314879</v>
       </c>
       <c r="E4">
-        <v>9.639667032740061</v>
+        <v>9.639667032740048</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.58194464963582</v>
+        <v>57.58194464963623</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.39336584443366</v>
+        <v>16.3933658444337</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.47968947771603</v>
+        <v>22.47968947771608</v>
       </c>
       <c r="C5">
         <v>24.97162139733977</v>
       </c>
       <c r="D5">
-        <v>6.326608458809041</v>
+        <v>6.326608458809059</v>
       </c>
       <c r="E5">
-        <v>9.411503287468708</v>
+        <v>9.411503287468781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.44076362404687</v>
+        <v>56.44076362404736</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.00124342218128</v>
+        <v>16.00124342218134</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38344136870375</v>
+        <v>22.38344136870382</v>
       </c>
       <c r="C6">
-        <v>24.86920381427374</v>
+        <v>24.86920381427362</v>
       </c>
       <c r="D6">
-        <v>6.301003673701598</v>
+        <v>6.301003673701695</v>
       </c>
       <c r="E6">
-        <v>9.373354944528751</v>
+        <v>9.373354944528787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.2503391583664</v>
+        <v>56.25033915836667</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.04828337650701</v>
+        <v>23.04828337650719</v>
       </c>
       <c r="C7">
-        <v>25.5761204988008</v>
+        <v>25.57612049880079</v>
       </c>
       <c r="D7">
-        <v>6.477629845191964</v>
+        <v>6.477629845192123</v>
       </c>
       <c r="E7">
-        <v>9.636607217613383</v>
+        <v>9.636607217613406</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.5666159927437</v>
+        <v>57.56661599274378</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.38810772426898</v>
+        <v>16.38810772426905</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91123539154023</v>
+        <v>25.91123539154043</v>
       </c>
       <c r="C8">
-        <v>28.60540160355379</v>
+        <v>28.60540160355401</v>
       </c>
       <c r="D8">
-        <v>7.231880061560243</v>
+        <v>7.231880061560342</v>
       </c>
       <c r="E8">
-        <v>10.76348460457258</v>
+        <v>10.76348460457261</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.24966647426766</v>
+        <v>63.24966647426824</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.3236898996393</v>
+        <v>18.3236898996394</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.38621171050074</v>
+        <v>31.38621171050105</v>
       </c>
       <c r="C9">
-        <v>34.32650945880201</v>
+        <v>34.32650945880232</v>
       </c>
       <c r="D9">
-        <v>8.645849040822599</v>
+        <v>8.645849040822808</v>
       </c>
       <c r="E9">
-        <v>12.88940808360672</v>
+        <v>12.88940808360675</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.09486942697943</v>
+        <v>74.09486942698021</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.97018623350756</v>
+        <v>21.97018623350772</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.49128836039102</v>
+        <v>35.49128836039095</v>
       </c>
       <c r="C10">
-        <v>38.54825327649735</v>
+        <v>38.54825327649741</v>
       </c>
       <c r="D10">
-        <v>9.680706637691232</v>
+        <v>9.680706637691259</v>
       </c>
       <c r="E10">
-        <v>14.45878710323346</v>
+        <v>14.45878710323341</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82.12296977070976</v>
+        <v>82.12296977070986</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.65735785209397</v>
+        <v>24.65735785209393</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.43886970354801</v>
+        <v>37.43886970354777</v>
       </c>
       <c r="C11">
-        <v>40.52921263322374</v>
+        <v>40.5292126332233</v>
       </c>
       <c r="D11">
-        <v>10.16363506206991</v>
+        <v>10.16363506206988</v>
       </c>
       <c r="E11">
-        <v>15.19589079985738</v>
+        <v>15.19589079985735</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.88185157319403</v>
+        <v>85.88185157319292</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.91791803766257</v>
+        <v>25.91791803766244</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.19649974339115</v>
+        <v>38.19649974339121</v>
       </c>
       <c r="C12">
-        <v>41.29584538249841</v>
+        <v>41.29584538249824</v>
       </c>
       <c r="D12">
-        <v>10.35004124172765</v>
+        <v>10.3500412417276</v>
       </c>
       <c r="E12">
-        <v>15.48131909701827</v>
+        <v>15.48131909701824</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87.3623911271178</v>
+        <v>87.36239112711762</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.40575748550197</v>
+        <v>26.40575748550193</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.03224888127551</v>
+        <v>38.03224888127576</v>
       </c>
       <c r="C13">
-        <v>41.12983488907066</v>
+        <v>41.12983488907084</v>
       </c>
       <c r="D13">
-        <v>10.30969971324681</v>
+        <v>10.30969971324684</v>
       </c>
       <c r="E13">
         <v>15.41950222889265</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>87.03707206469481</v>
+        <v>87.03707206469498</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.3001172491312</v>
+        <v>26.30011724913127</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.50073170515727</v>
+        <v>37.50073170515741</v>
       </c>
       <c r="C14">
-        <v>40.59189431342324</v>
+        <v>40.59189431342344</v>
       </c>
       <c r="D14">
-        <v>10.17888652633994</v>
+        <v>10.17888652634013</v>
       </c>
       <c r="E14">
-        <v>15.21922426530115</v>
+        <v>15.21922426530121</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86.00062680106127</v>
+        <v>86.00062680106112</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.95780455442728</v>
+        <v>25.95780455442738</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.17811295036316</v>
+        <v>37.17811295036314</v>
       </c>
       <c r="C15">
-        <v>40.2648364469264</v>
+        <v>40.2648364469262</v>
       </c>
       <c r="D15">
         <v>10.09928783161275</v>
       </c>
       <c r="E15">
-        <v>15.09748307791561</v>
+        <v>15.09748307791557</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>85.380761440805</v>
+        <v>85.38076144080416</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.7496867481568</v>
+        <v>25.74968674815674</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.36626517636843</v>
+        <v>35.36626517636859</v>
       </c>
       <c r="C16">
-        <v>38.42059235189802</v>
+        <v>38.42059235189838</v>
       </c>
       <c r="D16">
-        <v>9.649524487358073</v>
+        <v>9.649524487358043</v>
       </c>
       <c r="E16">
-        <v>14.41130429413359</v>
+        <v>14.41130429413366</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.8804455541506</v>
+        <v>81.88044555415134</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.57611958370979</v>
+        <v>24.57611958370994</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.28021121890135</v>
+        <v>34.28021121890149</v>
       </c>
       <c r="C17">
         <v>37.3091599808122</v>
       </c>
       <c r="D17">
-        <v>9.377749886749328</v>
+        <v>9.37774988674931</v>
       </c>
       <c r="E17">
-        <v>13.99799634665729</v>
+        <v>13.9979963466572</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.76796460626072</v>
+        <v>79.76796460626092</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.86881704980862</v>
+        <v>23.86881704980861</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.66240416606799</v>
+        <v>33.66240416606774</v>
       </c>
       <c r="C18">
-        <v>36.6749662665726</v>
+        <v>36.67496626657225</v>
       </c>
       <c r="D18">
-        <v>9.222436423329398</v>
+        <v>9.222436423329187</v>
       </c>
       <c r="E18">
-        <v>13.76221929825379</v>
+        <v>13.76221929825378</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.56193670553114</v>
+        <v>78.56193670553009</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.46518934695166</v>
+        <v>23.46518934695152</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.45420417446693</v>
+        <v>33.45420417446677</v>
       </c>
       <c r="C19">
-        <v>36.46092930799697</v>
+        <v>36.46092930799671</v>
       </c>
       <c r="D19">
-        <v>9.169980808278707</v>
+        <v>9.169980808278515</v>
       </c>
       <c r="E19">
-        <v>13.68265453367245</v>
+        <v>13.68265453367239</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.15484146661585</v>
+        <v>78.15484146661473</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.3289600113515</v>
+        <v>23.32896001135136</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.39506379400355</v>
+        <v>34.39506379400353</v>
       </c>
       <c r="C20">
-        <v>37.42690397781601</v>
+        <v>37.42690397781615</v>
       </c>
       <c r="D20">
-        <v>9.406566539487962</v>
+        <v>9.4065665394881</v>
       </c>
       <c r="E20">
         <v>14.04177509798484</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.99183358740977</v>
+        <v>79.99183358740963</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.94375119356372</v>
+        <v>23.94375119356374</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.65621403821361</v>
+        <v>37.65621403821358</v>
       </c>
       <c r="C21">
-        <v>40.7493705937934</v>
+        <v>40.74937059379326</v>
       </c>
       <c r="D21">
-        <v>10.21719488353294</v>
+        <v>10.21719488353285</v>
       </c>
       <c r="E21">
-        <v>15.27784827756171</v>
+        <v>15.27784827756174</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.29897615879688</v>
+        <v>86.29897615879597</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.05801237115978</v>
+        <v>26.05801237115979</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.91282634523709</v>
+        <v>39.91282634523692</v>
       </c>
       <c r="C22">
-        <v>43.02410989533983</v>
+        <v>43.02410989533972</v>
       </c>
       <c r="D22">
-        <v>10.769211886661</v>
+        <v>10.76921188666092</v>
       </c>
       <c r="E22">
-        <v>16.12518289452883</v>
+        <v>16.12518289452877</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>90.74050823059935</v>
+        <v>90.74050823059842</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.50559652487487</v>
+        <v>27.50559652487475</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.69276395238962</v>
+        <v>38.69276395238972</v>
       </c>
       <c r="C23">
-        <v>41.79677546303286</v>
+        <v>41.79677546303299</v>
       </c>
       <c r="D23">
-        <v>10.47168914386303</v>
+        <v>10.471689143863</v>
       </c>
       <c r="E23">
-        <v>15.66787985736197</v>
+        <v>15.66787985736196</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>88.34317980251434</v>
+        <v>88.3431798025145</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.72452773056222</v>
+        <v>26.72452773056228</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.34311902839339</v>
+        <v>34.34311902839328</v>
       </c>
       <c r="C24">
-        <v>37.37365754126657</v>
+        <v>37.37365754126668</v>
       </c>
       <c r="D24">
-        <v>9.393535743651732</v>
+        <v>9.3935357436518</v>
       </c>
       <c r="E24">
-        <v>14.02197719561631</v>
+        <v>14.02197719561623</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.89059693267789</v>
+        <v>79.8905969326776</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.90986442881356</v>
+        <v>23.90986442881355</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.90599261579052</v>
+        <v>29.90599261579067</v>
       </c>
       <c r="C25">
-        <v>32.78955246168356</v>
+        <v>32.78955246168377</v>
       </c>
       <c r="D25">
-        <v>8.267287660508291</v>
+        <v>8.267287660508265</v>
       </c>
       <c r="E25">
-        <v>12.31833995315595</v>
+        <v>12.31833995315594</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.17329254799435</v>
+        <v>71.17329254799478</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.99134578551979</v>
+        <v>20.99134578551986</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.67302318899634</v>
+        <v>26.67302318899624</v>
       </c>
       <c r="C2">
-        <v>29.40725011604433</v>
+        <v>29.40725011604412</v>
       </c>
       <c r="D2">
-        <v>7.430860371046862</v>
+        <v>7.430860371046928</v>
       </c>
       <c r="E2">
-        <v>11.06154182998181</v>
+        <v>11.06154182998177</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.76305002017938</v>
+        <v>64.76305002017918</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.83534409642921</v>
+        <v>18.83534409642909</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.44945855182278</v>
+        <v>24.44945855182284</v>
       </c>
       <c r="C3">
-        <v>27.06175994981703</v>
+        <v>27.06175994981698</v>
       </c>
       <c r="D3">
-        <v>6.84804832857246</v>
+        <v>6.848048328572405</v>
       </c>
       <c r="E3">
-        <v>10.18946343254957</v>
+        <v>10.18946343254963</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.34605087781149</v>
+        <v>60.34605087781127</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.33794675341201</v>
+        <v>17.33794675341206</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.05601992381893</v>
+        <v>23.0560199238188</v>
       </c>
       <c r="C4">
-        <v>25.58433916919449</v>
+        <v>25.58433916919418</v>
       </c>
       <c r="D4">
-        <v>6.479681879314879</v>
+        <v>6.479681879314866</v>
       </c>
       <c r="E4">
-        <v>9.639667032740048</v>
+        <v>9.639667032740061</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.58194464963623</v>
+        <v>57.58194464963582</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.3933658444337</v>
+        <v>16.39336584443366</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.47968947771608</v>
+        <v>22.47968947771603</v>
       </c>
       <c r="C5">
         <v>24.97162139733977</v>
       </c>
       <c r="D5">
-        <v>6.326608458809059</v>
+        <v>6.326608458809041</v>
       </c>
       <c r="E5">
-        <v>9.411503287468781</v>
+        <v>9.411503287468708</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.44076362404736</v>
+        <v>56.44076362404687</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.00124342218134</v>
+        <v>16.00124342218128</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38344136870382</v>
+        <v>22.38344136870375</v>
       </c>
       <c r="C6">
-        <v>24.86920381427362</v>
+        <v>24.86920381427374</v>
       </c>
       <c r="D6">
-        <v>6.301003673701695</v>
+        <v>6.301003673701598</v>
       </c>
       <c r="E6">
-        <v>9.373354944528787</v>
+        <v>9.373354944528751</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.25033915836667</v>
+        <v>56.2503391583664</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.04828337650719</v>
+        <v>23.04828337650701</v>
       </c>
       <c r="C7">
-        <v>25.57612049880079</v>
+        <v>25.5761204988008</v>
       </c>
       <c r="D7">
-        <v>6.477629845192123</v>
+        <v>6.477629845191964</v>
       </c>
       <c r="E7">
-        <v>9.636607217613406</v>
+        <v>9.636607217613383</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.56661599274378</v>
+        <v>57.5666159927437</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.38810772426905</v>
+        <v>16.38810772426898</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91123539154043</v>
+        <v>25.91123539154023</v>
       </c>
       <c r="C8">
-        <v>28.60540160355401</v>
+        <v>28.60540160355379</v>
       </c>
       <c r="D8">
-        <v>7.231880061560342</v>
+        <v>7.231880061560243</v>
       </c>
       <c r="E8">
-        <v>10.76348460457261</v>
+        <v>10.76348460457258</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.24966647426824</v>
+        <v>63.24966647426766</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.3236898996394</v>
+        <v>18.3236898996393</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.38621171050105</v>
+        <v>31.38621171050074</v>
       </c>
       <c r="C9">
-        <v>34.32650945880232</v>
+        <v>34.32650945880201</v>
       </c>
       <c r="D9">
-        <v>8.645849040822808</v>
+        <v>8.645849040822599</v>
       </c>
       <c r="E9">
-        <v>12.88940808360675</v>
+        <v>12.88940808360672</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.09486942698021</v>
+        <v>74.09486942697943</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.97018623350772</v>
+        <v>21.97018623350756</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.49128836039095</v>
+        <v>35.49128836039102</v>
       </c>
       <c r="C10">
-        <v>38.54825327649741</v>
+        <v>38.54825327649735</v>
       </c>
       <c r="D10">
-        <v>9.680706637691259</v>
+        <v>9.680706637691232</v>
       </c>
       <c r="E10">
-        <v>14.45878710323341</v>
+        <v>14.45878710323346</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82.12296977070986</v>
+        <v>82.12296977070976</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.65735785209393</v>
+        <v>24.65735785209397</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.43886970354777</v>
+        <v>37.43886970354801</v>
       </c>
       <c r="C11">
-        <v>40.5292126332233</v>
+        <v>40.52921263322374</v>
       </c>
       <c r="D11">
-        <v>10.16363506206988</v>
+        <v>10.16363506206991</v>
       </c>
       <c r="E11">
-        <v>15.19589079985735</v>
+        <v>15.19589079985738</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.88185157319292</v>
+        <v>85.88185157319403</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.91791803766244</v>
+        <v>25.91791803766257</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.19649974339121</v>
+        <v>38.19649974339115</v>
       </c>
       <c r="C12">
-        <v>41.29584538249824</v>
+        <v>41.29584538249841</v>
       </c>
       <c r="D12">
-        <v>10.3500412417276</v>
+        <v>10.35004124172765</v>
       </c>
       <c r="E12">
-        <v>15.48131909701824</v>
+        <v>15.48131909701827</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87.36239112711762</v>
+        <v>87.3623911271178</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.40575748550193</v>
+        <v>26.40575748550197</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.03224888127576</v>
+        <v>38.03224888127551</v>
       </c>
       <c r="C13">
-        <v>41.12983488907084</v>
+        <v>41.12983488907066</v>
       </c>
       <c r="D13">
-        <v>10.30969971324684</v>
+        <v>10.30969971324681</v>
       </c>
       <c r="E13">
         <v>15.41950222889265</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>87.03707206469498</v>
+        <v>87.03707206469481</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.30011724913127</v>
+        <v>26.3001172491312</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.50073170515741</v>
+        <v>37.50073170515727</v>
       </c>
       <c r="C14">
-        <v>40.59189431342344</v>
+        <v>40.59189431342324</v>
       </c>
       <c r="D14">
-        <v>10.17888652634013</v>
+        <v>10.17888652633994</v>
       </c>
       <c r="E14">
-        <v>15.21922426530121</v>
+        <v>15.21922426530115</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86.00062680106112</v>
+        <v>86.00062680106127</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.95780455442738</v>
+        <v>25.95780455442728</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.17811295036314</v>
+        <v>37.17811295036316</v>
       </c>
       <c r="C15">
-        <v>40.2648364469262</v>
+        <v>40.2648364469264</v>
       </c>
       <c r="D15">
         <v>10.09928783161275</v>
       </c>
       <c r="E15">
-        <v>15.09748307791557</v>
+        <v>15.09748307791561</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>85.38076144080416</v>
+        <v>85.380761440805</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.74968674815674</v>
+        <v>25.7496867481568</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.36626517636859</v>
+        <v>35.36626517636843</v>
       </c>
       <c r="C16">
-        <v>38.42059235189838</v>
+        <v>38.42059235189802</v>
       </c>
       <c r="D16">
-        <v>9.649524487358043</v>
+        <v>9.649524487358073</v>
       </c>
       <c r="E16">
-        <v>14.41130429413366</v>
+        <v>14.41130429413359</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.88044555415134</v>
+        <v>81.8804455541506</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.57611958370994</v>
+        <v>24.57611958370979</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.28021121890149</v>
+        <v>34.28021121890135</v>
       </c>
       <c r="C17">
         <v>37.3091599808122</v>
       </c>
       <c r="D17">
-        <v>9.37774988674931</v>
+        <v>9.377749886749328</v>
       </c>
       <c r="E17">
-        <v>13.9979963466572</v>
+        <v>13.99799634665729</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.76796460626092</v>
+        <v>79.76796460626072</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.86881704980861</v>
+        <v>23.86881704980862</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.66240416606774</v>
+        <v>33.66240416606799</v>
       </c>
       <c r="C18">
-        <v>36.67496626657225</v>
+        <v>36.6749662665726</v>
       </c>
       <c r="D18">
-        <v>9.222436423329187</v>
+        <v>9.222436423329398</v>
       </c>
       <c r="E18">
-        <v>13.76221929825378</v>
+        <v>13.76221929825379</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.56193670553009</v>
+        <v>78.56193670553114</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.46518934695152</v>
+        <v>23.46518934695166</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.45420417446677</v>
+        <v>33.45420417446693</v>
       </c>
       <c r="C19">
-        <v>36.46092930799671</v>
+        <v>36.46092930799697</v>
       </c>
       <c r="D19">
-        <v>9.169980808278515</v>
+        <v>9.169980808278707</v>
       </c>
       <c r="E19">
-        <v>13.68265453367239</v>
+        <v>13.68265453367245</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.15484146661473</v>
+        <v>78.15484146661585</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.32896001135136</v>
+        <v>23.3289600113515</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.39506379400353</v>
+        <v>34.39506379400355</v>
       </c>
       <c r="C20">
-        <v>37.42690397781615</v>
+        <v>37.42690397781601</v>
       </c>
       <c r="D20">
-        <v>9.4065665394881</v>
+        <v>9.406566539487962</v>
       </c>
       <c r="E20">
         <v>14.04177509798484</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.99183358740963</v>
+        <v>79.99183358740977</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.94375119356374</v>
+        <v>23.94375119356372</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.65621403821358</v>
+        <v>37.65621403821361</v>
       </c>
       <c r="C21">
-        <v>40.74937059379326</v>
+        <v>40.7493705937934</v>
       </c>
       <c r="D21">
-        <v>10.21719488353285</v>
+        <v>10.21719488353294</v>
       </c>
       <c r="E21">
-        <v>15.27784827756174</v>
+        <v>15.27784827756171</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.29897615879597</v>
+        <v>86.29897615879688</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.05801237115979</v>
+        <v>26.05801237115978</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.91282634523692</v>
+        <v>39.91282634523709</v>
       </c>
       <c r="C22">
-        <v>43.02410989533972</v>
+        <v>43.02410989533983</v>
       </c>
       <c r="D22">
-        <v>10.76921188666092</v>
+        <v>10.769211886661</v>
       </c>
       <c r="E22">
-        <v>16.12518289452877</v>
+        <v>16.12518289452883</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>90.74050823059842</v>
+        <v>90.74050823059935</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.50559652487475</v>
+        <v>27.50559652487487</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.69276395238972</v>
+        <v>38.69276395238962</v>
       </c>
       <c r="C23">
-        <v>41.79677546303299</v>
+        <v>41.79677546303286</v>
       </c>
       <c r="D23">
-        <v>10.471689143863</v>
+        <v>10.47168914386303</v>
       </c>
       <c r="E23">
-        <v>15.66787985736196</v>
+        <v>15.66787985736197</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>88.3431798025145</v>
+        <v>88.34317980251434</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.72452773056228</v>
+        <v>26.72452773056222</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.34311902839328</v>
+        <v>34.34311902839339</v>
       </c>
       <c r="C24">
-        <v>37.37365754126668</v>
+        <v>37.37365754126657</v>
       </c>
       <c r="D24">
-        <v>9.3935357436518</v>
+        <v>9.393535743651732</v>
       </c>
       <c r="E24">
-        <v>14.02197719561623</v>
+        <v>14.02197719561631</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.8905969326776</v>
+        <v>79.89059693267789</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.90986442881355</v>
+        <v>23.90986442881356</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.90599261579067</v>
+        <v>29.90599261579052</v>
       </c>
       <c r="C25">
-        <v>32.78955246168377</v>
+        <v>32.78955246168356</v>
       </c>
       <c r="D25">
-        <v>8.267287660508265</v>
+        <v>8.267287660508291</v>
       </c>
       <c r="E25">
-        <v>12.31833995315594</v>
+        <v>12.31833995315595</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.17329254799478</v>
+        <v>71.17329254799435</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.99134578551986</v>
+        <v>20.99134578551979</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.67302318899624</v>
+        <v>26.45654963053959</v>
       </c>
       <c r="C2">
-        <v>29.40725011604412</v>
+        <v>29.22905989595461</v>
       </c>
       <c r="D2">
-        <v>7.430860371046928</v>
+        <v>7.404171187004792</v>
       </c>
       <c r="E2">
-        <v>11.06154182998177</v>
+        <v>11.05432177635451</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.010619885767325</v>
       </c>
       <c r="H2">
-        <v>64.76305002017918</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.76654016435047</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.83534409642909</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>18.74671629299818</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.44945855182284</v>
+        <v>24.25284294403638</v>
       </c>
       <c r="C3">
-        <v>27.06175994981698</v>
+        <v>26.90532808654284</v>
       </c>
       <c r="D3">
-        <v>6.848048328572405</v>
+        <v>6.824188745902651</v>
       </c>
       <c r="E3">
-        <v>10.18946343254963</v>
+        <v>10.18623443655002</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.034930214970012</v>
       </c>
       <c r="H3">
-        <v>60.34605087781127</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.38814505315335</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.33794675341206</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>17.25707638478479</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.0560199238188</v>
+        <v>22.87206283577288</v>
       </c>
       <c r="C4">
-        <v>25.58433916919418</v>
+        <v>25.44189724202917</v>
       </c>
       <c r="D4">
-        <v>6.479681879314866</v>
+        <v>6.457494251708868</v>
       </c>
       <c r="E4">
-        <v>9.639667032740061</v>
+        <v>9.638794274408385</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.049722723094845</v>
       </c>
       <c r="H4">
-        <v>57.58194464963582</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.64869610190835</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.39336584443366</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>16.31709492738992</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.47968947771603</v>
+        <v>22.30105827389588</v>
       </c>
       <c r="C5">
-        <v>24.97162139733977</v>
+        <v>24.83509035203168</v>
       </c>
       <c r="D5">
-        <v>6.326608458809041</v>
+        <v>6.305092389626645</v>
       </c>
       <c r="E5">
-        <v>9.411503287468708</v>
+        <v>9.411578580186184</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.055740950741753</v>
       </c>
       <c r="H5">
-        <v>56.44076362404687</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.5178750065033</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.00124342218128</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.9268248226975</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38344136870375</v>
+        <v>22.20570604111653</v>
       </c>
       <c r="C6">
-        <v>24.86920381427374</v>
+        <v>24.73366839456233</v>
       </c>
       <c r="D6">
-        <v>6.301003673701598</v>
+        <v>6.279598689374094</v>
       </c>
       <c r="E6">
-        <v>9.373354944528751</v>
+        <v>9.373587218321834</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.056740294733666</v>
       </c>
       <c r="H6">
-        <v>56.2503391583664</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.32919152662029</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.93567455978428</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.86156268147469</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.04828337650701</v>
+        <v>22.864397373521</v>
       </c>
       <c r="C7">
-        <v>25.5761204988008</v>
+        <v>25.43375737230842</v>
       </c>
       <c r="D7">
-        <v>6.477629845191964</v>
+        <v>6.455451306453999</v>
       </c>
       <c r="E7">
-        <v>9.636607217613383</v>
+        <v>9.635747280731872</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.049803898476592</v>
       </c>
       <c r="H7">
-        <v>57.5666159927437</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.63350581309057</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.38810772426898</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>16.31186185534769</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.91123539154023</v>
+        <v>25.70154417520703</v>
       </c>
       <c r="C8">
-        <v>28.60540160355379</v>
+        <v>28.43461516296209</v>
       </c>
       <c r="D8">
-        <v>7.231880061560243</v>
+        <v>7.206184729319598</v>
       </c>
       <c r="E8">
-        <v>10.76348460457258</v>
+        <v>10.75766813548368</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.019045829884611</v>
       </c>
       <c r="H8">
-        <v>63.24966647426766</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.26631666967179</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.3236898996393</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>18.23778401969351</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.38621171050074</v>
+        <v>31.12687321844808</v>
       </c>
       <c r="C9">
-        <v>34.32650945880201</v>
+        <v>34.10226335344698</v>
       </c>
       <c r="D9">
-        <v>8.645849040822599</v>
+        <v>8.612298666836622</v>
       </c>
       <c r="E9">
-        <v>12.88940808360672</v>
+        <v>12.87238426679109</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.956264806215096</v>
       </c>
       <c r="H9">
-        <v>74.09486942697943</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>74.01636835770728</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.97018623350756</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>21.86279103793599</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.49128836039102</v>
+        <v>35.19049535115541</v>
       </c>
       <c r="C10">
-        <v>38.54825327649735</v>
+        <v>38.28073862731828</v>
       </c>
       <c r="D10">
-        <v>9.680706637691232</v>
+        <v>9.639783865401073</v>
       </c>
       <c r="E10">
-        <v>14.45878710323346</v>
+        <v>14.43093364138962</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.905885329436235</v>
       </c>
       <c r="H10">
-        <v>82.12296977070976</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>81.96781905319897</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.65735785209397</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>24.52974536492274</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.43886970354801</v>
+        <v>37.11578662037916</v>
       </c>
       <c r="C11">
-        <v>40.52921263322374</v>
+        <v>40.2389261492176</v>
       </c>
       <c r="D11">
-        <v>10.16363506206991</v>
+        <v>10.11854681617499</v>
       </c>
       <c r="E11">
-        <v>15.19589079985738</v>
+        <v>15.16177811618441</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.881033886007604</v>
       </c>
       <c r="H11">
-        <v>85.88185157319403</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>85.68664287819648</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.91791803766257</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>25.77883257178631</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.19649974339115</v>
+        <v>37.86409966389998</v>
       </c>
       <c r="C12">
-        <v>41.29584538249841</v>
+        <v>40.99613394476853</v>
       </c>
       <c r="D12">
-        <v>10.35004124172765</v>
+        <v>10.30318171939819</v>
       </c>
       <c r="E12">
-        <v>15.48131909701827</v>
+        <v>15.4445160658401</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.871206865737199</v>
       </c>
       <c r="H12">
-        <v>87.3623911271178</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>87.1219823320049</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.40575748550197</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>26.26178090264434</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.03224888127551</v>
+        <v>37.70190357159306</v>
       </c>
       <c r="C13">
-        <v>41.12983488907066</v>
+        <v>40.83219751830578</v>
       </c>
       <c r="D13">
-        <v>10.30969971324681</v>
+        <v>10.26323215794949</v>
       </c>
       <c r="E13">
-        <v>15.41950222889265</v>
+        <v>15.38329596728522</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.87334479099906</v>
       </c>
       <c r="H13">
-        <v>87.03707206469481</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>86.81138087646157</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.3001172491312</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>26.15722367883119</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.50073170515727</v>
+        <v>37.17690286312616</v>
       </c>
       <c r="C14">
-        <v>40.59189431342324</v>
+        <v>40.30085147503173</v>
       </c>
       <c r="D14">
-        <v>10.17888652633994</v>
+        <v>10.13365708960903</v>
       </c>
       <c r="E14">
-        <v>15.21922426530115</v>
+        <v>15.18489774087798</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.880234800648433</v>
       </c>
       <c r="H14">
-        <v>86.00062680106127</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>85.80409133413235</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.95780455442728</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>25.81832948867681</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.17811295036316</v>
+        <v>36.858145539979</v>
       </c>
       <c r="C15">
-        <v>40.2648364469264</v>
+        <v>39.97771365727705</v>
       </c>
       <c r="D15">
-        <v>10.09928783161275</v>
+        <v>10.05478829058218</v>
       </c>
       <c r="E15">
-        <v>15.09748307791561</v>
+        <v>15.06426085808822</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.884395627860552</v>
       </c>
       <c r="H15">
-        <v>85.380761440805</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>85.19110503566506</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.7496867481568</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>25.61222523030124</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.36626517636843</v>
+        <v>35.06683263389464</v>
       </c>
       <c r="C16">
-        <v>38.42059235189802</v>
+        <v>38.1544782835706</v>
       </c>
       <c r="D16">
-        <v>9.649524487358073</v>
+        <v>9.608852139974411</v>
       </c>
       <c r="E16">
-        <v>14.41130429413359</v>
+        <v>14.38382398736685</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.907460152234087</v>
       </c>
       <c r="H16">
-        <v>81.8804455541506</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>81.72776552270261</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.57611958370979</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>24.4491955746943</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.28021121890135</v>
+        <v>33.99229513597007</v>
       </c>
       <c r="C17">
-        <v>37.3091599808122</v>
+        <v>37.05495348390271</v>
       </c>
       <c r="D17">
-        <v>9.377749886749328</v>
+        <v>9.339176988242935</v>
       </c>
       <c r="E17">
-        <v>13.99799634665729</v>
+        <v>13.97362991273167</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.921034680263147</v>
       </c>
       <c r="H17">
-        <v>79.76796460626072</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>79.63632070301288</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.86881704980862</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>23.74765962747093</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.66240416606799</v>
+        <v>33.38082081612745</v>
       </c>
       <c r="C18">
-        <v>36.6749662665726</v>
+        <v>36.42734760933762</v>
       </c>
       <c r="D18">
-        <v>9.222436423329398</v>
+        <v>9.185001124788322</v>
       </c>
       <c r="E18">
-        <v>13.76221929825379</v>
+        <v>13.73952919359531</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.928671340866033</v>
       </c>
       <c r="H18">
-        <v>78.56193670553114</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>78.44195351383404</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.46518934695166</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>23.34715283841247</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.45420417446693</v>
+        <v>33.17472295678329</v>
       </c>
       <c r="C19">
-        <v>36.46092930799697</v>
+        <v>36.21550385249894</v>
       </c>
       <c r="D19">
-        <v>9.169980808278707</v>
+        <v>9.132920269280199</v>
       </c>
       <c r="E19">
-        <v>13.68265453367245</v>
+        <v>13.66051496400609</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.931230837292476</v>
       </c>
       <c r="H19">
-        <v>78.15484146661585</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>78.03874367585551</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.3289600113515</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>23.21195108836649</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.39506379400355</v>
+        <v>34.10595391381878</v>
       </c>
       <c r="C20">
-        <v>37.42690397781601</v>
+        <v>37.17145880569655</v>
       </c>
       <c r="D20">
-        <v>9.406566539487962</v>
+        <v>9.36777779311269</v>
       </c>
       <c r="E20">
-        <v>14.04177509798484</v>
+        <v>14.0170897251677</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.919608151490201</v>
       </c>
       <c r="H20">
-        <v>79.99183358740977</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>79.85799892729607</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.94375119356372</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>23.82200132251161</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.65621403821361</v>
+        <v>37.33049938011298</v>
       </c>
       <c r="C21">
-        <v>40.7493705937934</v>
+        <v>40.45641668066988</v>
       </c>
       <c r="D21">
-        <v>10.21719488353294</v>
+        <v>10.17160794458472</v>
       </c>
       <c r="E21">
-        <v>15.27784827756171</v>
+        <v>15.24297982031467</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.878223792418863</v>
       </c>
       <c r="H21">
-        <v>86.29897615879688</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>86.09908943646045</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.05801237115978</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>25.91755060465151</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.91282634523709</v>
+        <v>39.55764079593811</v>
       </c>
       <c r="C22">
-        <v>43.02410989533983</v>
+        <v>42.70156049742847</v>
       </c>
       <c r="D22">
-        <v>10.769211886661</v>
+        <v>10.71796234349301</v>
       </c>
       <c r="E22">
-        <v>16.12518289452883</v>
+        <v>16.08164356422045</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.848623610277129</v>
       </c>
       <c r="H22">
-        <v>90.74050823059935</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>90.44287837854108</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.50559652487487</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>27.3494647815958</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.69276395238962</v>
+        <v>38.35403051927352</v>
       </c>
       <c r="C23">
-        <v>41.79677546303286</v>
+        <v>41.49068681775392</v>
       </c>
       <c r="D23">
-        <v>10.47168914386303</v>
+        <v>10.42361707397813</v>
       </c>
       <c r="E23">
-        <v>15.66787985736197</v>
+        <v>15.62922572939802</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.864722467079503</v>
       </c>
       <c r="H23">
-        <v>88.34317980251434</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>88.07357410676624</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.72452773056222</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>26.57719849460515</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.34311902839339</v>
+        <v>34.0545497374085</v>
       </c>
       <c r="C24">
-        <v>37.37365754126657</v>
+        <v>37.1187731549843</v>
       </c>
       <c r="D24">
-        <v>9.393535743651732</v>
+        <v>9.354844793373134</v>
       </c>
       <c r="E24">
-        <v>14.02197719561631</v>
+        <v>13.9974363616453</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.920253597594148</v>
       </c>
       <c r="H24">
-        <v>79.89059693267789</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>79.75775402489634</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.90986442881356</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>23.7883829953692</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.90599261579052</v>
+        <v>29.66043142948256</v>
       </c>
       <c r="C25">
-        <v>32.78955246168356</v>
+        <v>32.5799650316346</v>
       </c>
       <c r="D25">
-        <v>8.267287660508291</v>
+        <v>8.23604233254577</v>
       </c>
       <c r="E25">
-        <v>12.31833995315595</v>
+        <v>12.30463640725813</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.973743997700291</v>
       </c>
       <c r="H25">
-        <v>71.17329254799435</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>71.12087552380983</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.99134578551979</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>20.89025578625189</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.45654963053959</v>
+        <v>33.4469313141432</v>
       </c>
       <c r="C2">
-        <v>29.22905989595461</v>
+        <v>26.506352853819</v>
       </c>
       <c r="D2">
-        <v>7.404171187004792</v>
+        <v>7.398058147950135</v>
       </c>
       <c r="E2">
-        <v>11.05432177635451</v>
+        <v>30.64351649157666</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.010619885767325</v>
+        <v>2.012215159704508</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.76654016435047</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>30.11630351147055</v>
       </c>
       <c r="L2">
-        <v>18.74671629299818</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>19.41934696304492</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.25284294403638</v>
+        <v>30.81706658705431</v>
       </c>
       <c r="C3">
-        <v>26.90532808654284</v>
+        <v>24.38821272538032</v>
       </c>
       <c r="D3">
-        <v>6.824188745902651</v>
+        <v>6.822787518627581</v>
       </c>
       <c r="E3">
-        <v>10.18623443655002</v>
+        <v>28.13127458283549</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.034930214970012</v>
+        <v>2.035333274811544</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.38814505315335</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>27.7276603151943</v>
       </c>
       <c r="L3">
-        <v>17.25707638478479</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>18.93359424545363</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87206283577288</v>
+        <v>29.15902540493959</v>
       </c>
       <c r="C4">
-        <v>25.44189724202917</v>
+        <v>23.05435675955007</v>
       </c>
       <c r="D4">
-        <v>6.457494251708868</v>
+        <v>6.458473485000389</v>
       </c>
       <c r="E4">
-        <v>9.638794274408385</v>
+        <v>26.5571540811573</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.049722723094845</v>
+        <v>2.049422206007278</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.64869610190835</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.22016108426327</v>
       </c>
       <c r="L4">
-        <v>16.31709492738992</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>18.64358808231542</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.30105827389588</v>
+        <v>28.47120367236748</v>
       </c>
       <c r="C5">
-        <v>24.83509035203168</v>
+        <v>22.50127629778332</v>
       </c>
       <c r="D5">
-        <v>6.305092389626645</v>
+        <v>6.306937130825293</v>
       </c>
       <c r="E5">
-        <v>9.411578580186184</v>
+        <v>25.90592755544259</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.055740950741753</v>
+        <v>2.055158893683788</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.5178750065033</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>25.59432886297371</v>
       </c>
       <c r="L5">
-        <v>15.9268248226975</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>18.52721082952784</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20570604111653</v>
+        <v>28.35622526452271</v>
       </c>
       <c r="C6">
-        <v>24.73366839456233</v>
+        <v>22.40883334515162</v>
       </c>
       <c r="D6">
-        <v>6.279598689374094</v>
+        <v>6.281581443970169</v>
       </c>
       <c r="E6">
-        <v>9.373587218321834</v>
+        <v>25.79715577352903</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.056740294733666</v>
+        <v>2.056111749876361</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.32919152662029</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>25.48968276434432</v>
       </c>
       <c r="L6">
-        <v>15.86156268147469</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>18.50798850741041</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.864397373521</v>
+        <v>29.14979989924071</v>
       </c>
       <c r="C7">
-        <v>25.43375737230842</v>
+        <v>23.04693763051549</v>
       </c>
       <c r="D7">
-        <v>6.455451306453999</v>
+        <v>6.456442607348767</v>
       </c>
       <c r="E7">
-        <v>9.635747280731872</v>
+        <v>26.54841307911507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.049803898476592</v>
+        <v>2.049499565835633</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.63350581309057</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.21176897543522</v>
       </c>
       <c r="L7">
-        <v>16.31186185534769</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>18.64201159543462</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.70154417520703</v>
+        <v>32.54828072764361</v>
       </c>
       <c r="C8">
-        <v>28.43461516296209</v>
+        <v>25.78216102709136</v>
       </c>
       <c r="D8">
-        <v>7.206184729319598</v>
+        <v>7.201819260376473</v>
       </c>
       <c r="E8">
-        <v>10.75766813548368</v>
+        <v>29.78264059941396</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.019045829884611</v>
+        <v>2.020222800923777</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.26631666967179</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>29.30035220037278</v>
       </c>
       <c r="L8">
-        <v>18.23778401969351</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>19.24996365759705</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.12687321844808</v>
+        <v>38.94596036920455</v>
       </c>
       <c r="C9">
-        <v>34.10226335344698</v>
+        <v>30.95005871190279</v>
       </c>
       <c r="D9">
-        <v>8.612298666836622</v>
+        <v>8.591855483005407</v>
       </c>
       <c r="E9">
-        <v>12.87238426679109</v>
+        <v>35.98180652422065</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.956264806215096</v>
+        <v>1.960689161148057</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.01636835770728</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>35.1059794883593</v>
       </c>
       <c r="L9">
-        <v>21.86279103793599</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>20.52426828706981</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.19049535115541</v>
+        <v>43.63719150455857</v>
       </c>
       <c r="C10">
-        <v>38.28073862731828</v>
+        <v>34.76343323151435</v>
       </c>
       <c r="D10">
-        <v>9.639783865401073</v>
+        <v>9.600993447128268</v>
       </c>
       <c r="E10">
-        <v>14.43093364138962</v>
+        <v>40.66464730897006</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.905885329436235</v>
+        <v>1.913132632628386</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>81.96781905319897</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>39.36243990817491</v>
       </c>
       <c r="L10">
-        <v>24.52974536492274</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>21.54482459749395</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.11578662037916</v>
+        <v>45.82619786823916</v>
       </c>
       <c r="C11">
-        <v>40.2389261492176</v>
+        <v>36.55211437997983</v>
       </c>
       <c r="D11">
-        <v>10.11854681617499</v>
+        <v>10.06877406782473</v>
       </c>
       <c r="E11">
-        <v>15.16177811618441</v>
+        <v>42.90449214731939</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.881033886007604</v>
+        <v>1.889741168477334</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>85.68664287819648</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>41.34979840137986</v>
       </c>
       <c r="L11">
-        <v>25.77883257178631</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>22.04048108764716</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.86409966389998</v>
+        <v>46.67085732153222</v>
       </c>
       <c r="C12">
-        <v>40.99613394476853</v>
+        <v>37.24415554001331</v>
       </c>
       <c r="D12">
-        <v>10.30318171939819</v>
+        <v>10.24870024557295</v>
       </c>
       <c r="E12">
-        <v>15.4445160658401</v>
+        <v>43.78000356581189</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.871206865737199</v>
+        <v>1.880502648968489</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>87.1219823320049</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>42.1169882432516</v>
       </c>
       <c r="L12">
-        <v>26.26178090264434</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>22.23451961243581</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.70190357159306</v>
+        <v>46.48807543594741</v>
       </c>
       <c r="C13">
-        <v>40.83219751830578</v>
+        <v>37.09430710501121</v>
       </c>
       <c r="D13">
-        <v>10.26323215794949</v>
+        <v>10.20979293553338</v>
       </c>
       <c r="E13">
-        <v>15.38329596728522</v>
+        <v>43.58997573855732</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.87334479099906</v>
+        <v>1.882512035551483</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>86.81138087646157</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>41.95095223185446</v>
       </c>
       <c r="L13">
-        <v>26.15722367883119</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>22.19240793488282</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.17690286312616</v>
+        <v>45.89531379913451</v>
       </c>
       <c r="C14">
-        <v>40.30085147503173</v>
+        <v>36.60870143808092</v>
       </c>
       <c r="D14">
-        <v>10.13365708960903</v>
+        <v>10.0835092656039</v>
       </c>
       <c r="E14">
-        <v>15.18489774087798</v>
+        <v>42.97588400384805</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.880234800648433</v>
+        <v>1.888989711218368</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>85.80409133413235</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.41256732353204</v>
       </c>
       <c r="L14">
-        <v>25.81832948867681</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>22.05630365401635</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.858145539979</v>
+        <v>45.53457905455751</v>
       </c>
       <c r="C15">
-        <v>39.97771365727705</v>
+        <v>36.31343606273379</v>
       </c>
       <c r="D15">
-        <v>10.05478829058218</v>
+        <v>10.00657838695306</v>
       </c>
       <c r="E15">
-        <v>15.06426085808822</v>
+        <v>42.60374448666312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.884395627860552</v>
+        <v>1.892902989579859</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>85.19110503566506</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>41.08497404047769</v>
       </c>
       <c r="L15">
-        <v>25.61222523030124</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>21.97383251477668</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.06683263389464</v>
+        <v>43.49582638127112</v>
       </c>
       <c r="C16">
-        <v>38.1544782835706</v>
+        <v>34.64814398848864</v>
       </c>
       <c r="D16">
-        <v>9.608852139974411</v>
+        <v>9.570713601906283</v>
       </c>
       <c r="E16">
-        <v>14.38382398736685</v>
+        <v>40.52133236306077</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.907460152234087</v>
+        <v>1.914616377966327</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>81.72776552270261</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>39.23413377347528</v>
       </c>
       <c r="L16">
-        <v>24.4491955746943</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>21.51320061328678</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.99229513597007</v>
+        <v>42.26368221823036</v>
       </c>
       <c r="C17">
-        <v>37.05495348390271</v>
+        <v>33.64434178479654</v>
       </c>
       <c r="D17">
-        <v>9.339176988242935</v>
+        <v>9.306443777360304</v>
       </c>
       <c r="E17">
-        <v>13.97362991273167</v>
+        <v>39.27846127945221</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.921034680263147</v>
+        <v>1.927413265966313</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>79.63632070301288</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>38.11596094149735</v>
       </c>
       <c r="L17">
-        <v>23.74765962747093</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>21.23970421543267</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.38082081612745</v>
+        <v>41.55953592951941</v>
       </c>
       <c r="C18">
-        <v>36.42734760933762</v>
+        <v>33.07150864864787</v>
       </c>
       <c r="D18">
-        <v>9.185001124788322</v>
+        <v>9.155142476474202</v>
       </c>
       <c r="E18">
-        <v>13.73952919359531</v>
+        <v>38.57298433350287</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.928671340866033</v>
+        <v>1.934618392284744</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>78.44195351383404</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>37.47704817635294</v>
       </c>
       <c r="L18">
-        <v>23.34715283841247</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>21.08520592641897</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.17472295678329</v>
+        <v>41.32172330437833</v>
       </c>
       <c r="C19">
-        <v>36.21550385249894</v>
+        <v>32.87817328122339</v>
       </c>
       <c r="D19">
-        <v>9.132920269280199</v>
+        <v>9.103998606399747</v>
       </c>
       <c r="E19">
-        <v>13.66051496400609</v>
+        <v>38.3354697928621</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.931230837292476</v>
+        <v>1.937034227670657</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>78.03874367585551</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>37.26128038896105</v>
       </c>
       <c r="L19">
-        <v>23.21195108836649</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>21.03333570656981</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.10595391381878</v>
+        <v>42.39432996389252</v>
       </c>
       <c r="C20">
-        <v>37.17145880569655</v>
+        <v>33.75068968358298</v>
       </c>
       <c r="D20">
-        <v>9.36777779311269</v>
+        <v>9.334494424645813</v>
       </c>
       <c r="E20">
-        <v>14.0170897251677</v>
+        <v>39.40972950207404</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.919608151490201</v>
+        <v>1.926067826135622</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>79.85799892729607</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>38.2345125169311</v>
       </c>
       <c r="L20">
-        <v>23.82200132251161</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>21.26851710118214</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.33049938011298</v>
+        <v>46.06891258720471</v>
       </c>
       <c r="C21">
-        <v>40.45641668066988</v>
+        <v>36.75086290343209</v>
       </c>
       <c r="D21">
-        <v>10.17160794458472</v>
+        <v>10.12051008137902</v>
       </c>
       <c r="E21">
-        <v>15.24297982031467</v>
+        <v>43.15539165030533</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.878223792418863</v>
+        <v>1.887098745301213</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>86.09908943646045</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>41.57023034321052</v>
       </c>
       <c r="L21">
-        <v>25.91755060465151</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>22.09608917861738</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.55764079593811</v>
+        <v>48.569388768035</v>
       </c>
       <c r="C22">
-        <v>42.70156049742847</v>
+        <v>38.80381736127654</v>
       </c>
       <c r="D22">
-        <v>10.71796234349301</v>
+        <v>10.65186196611888</v>
       </c>
       <c r="E22">
-        <v>16.08164356422045</v>
+        <v>45.77379052913283</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.848623610277129</v>
+        <v>1.859292886593251</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>90.44287837854108</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>43.84225620001354</v>
       </c>
       <c r="L22">
-        <v>27.3494647815958</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>22.6756384734462</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.35403051927352</v>
+        <v>47.22196394153345</v>
       </c>
       <c r="C23">
-        <v>41.49068681775392</v>
+        <v>37.69628333135412</v>
       </c>
       <c r="D23">
-        <v>10.42361707397813</v>
+        <v>10.36591351114453</v>
       </c>
       <c r="E23">
-        <v>15.62922572939802</v>
+        <v>44.35493171898744</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.864722467079503</v>
+        <v>1.874409767643086</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>88.07357410676624</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>42.61766943264526</v>
       </c>
       <c r="L23">
-        <v>26.57719849460515</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>22.36188480843874</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.0545497374085</v>
+        <v>42.3352514704019</v>
       </c>
       <c r="C24">
-        <v>37.1187731549843</v>
+        <v>33.70259697785071</v>
       </c>
       <c r="D24">
-        <v>9.354844793373134</v>
+        <v>9.321810865450818</v>
       </c>
       <c r="E24">
-        <v>13.9974363616453</v>
+        <v>39.35035567171136</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.920253597594148</v>
+        <v>1.92667656424159</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>79.75775402489634</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>38.1809035683802</v>
       </c>
       <c r="L24">
-        <v>23.7883829953692</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>21.2554823887913</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.66043142948256</v>
+        <v>37.2309536585816</v>
       </c>
       <c r="C25">
-        <v>32.5799650316346</v>
+        <v>29.56159785756027</v>
       </c>
       <c r="D25">
-        <v>8.23604233254577</v>
+        <v>8.22080073953267</v>
       </c>
       <c r="E25">
-        <v>12.30463640725813</v>
+        <v>34.30219392545389</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.973743997700291</v>
+        <v>1.97723385380902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.12087552380983</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.55017021436366</v>
       </c>
       <c r="L25">
-        <v>20.89025578625189</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>20.1679256101243</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.4469313141432</v>
+        <v>42.07355435930133</v>
       </c>
       <c r="C2">
-        <v>26.506352853819</v>
+        <v>35.00972282562169</v>
       </c>
       <c r="D2">
-        <v>7.398058147950135</v>
+        <v>7.599391945473155</v>
       </c>
       <c r="E2">
-        <v>30.64351649157666</v>
+        <v>31.57040179350977</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.012215159704508</v>
+        <v>1.961064174238532</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.11630351147055</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.41934696304492</v>
+        <v>18.96962157987537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.81706658705431</v>
+        <v>38.58667748148729</v>
       </c>
       <c r="C3">
-        <v>24.38821272538032</v>
+        <v>32.06591871286636</v>
       </c>
       <c r="D3">
-        <v>6.822787518627581</v>
+        <v>6.978317896901734</v>
       </c>
       <c r="E3">
-        <v>28.13127458283549</v>
+        <v>28.83338142179412</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.035333274811544</v>
+        <v>1.99160886349523</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.7276603151943</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.93359424545363</v>
+        <v>18.44479151600335</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.15902540493959</v>
+        <v>36.41566038942596</v>
       </c>
       <c r="C4">
-        <v>23.05435675955007</v>
+        <v>30.23593038218347</v>
       </c>
       <c r="D4">
-        <v>6.458473485000389</v>
+        <v>6.589939657624927</v>
       </c>
       <c r="E4">
-        <v>26.5571540811573</v>
+        <v>27.14400595379297</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.049422206007278</v>
+        <v>2.009906457659925</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.22016108426327</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.64358808231542</v>
+        <v>18.13555888798154</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.47120367236748</v>
+        <v>35.52028625097373</v>
       </c>
       <c r="C5">
-        <v>22.50127629778332</v>
+        <v>29.48171253840469</v>
       </c>
       <c r="D5">
-        <v>6.306937130825293</v>
+        <v>6.429358406582376</v>
       </c>
       <c r="E5">
-        <v>25.90592755544259</v>
+        <v>26.44999139045136</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.055158893683788</v>
+        <v>2.017295701012718</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.59432886297371</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.52721082952784</v>
+        <v>18.01225766048632</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.35622526452271</v>
+        <v>35.3708899685427</v>
       </c>
       <c r="C6">
-        <v>22.40883334515162</v>
+        <v>29.35589354388314</v>
       </c>
       <c r="D6">
-        <v>6.281581443970169</v>
+        <v>6.402540683500435</v>
       </c>
       <c r="E6">
-        <v>25.79715577352903</v>
+        <v>26.33433128802917</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.056111749876361</v>
+        <v>2.018519801349688</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.48968276434432</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.50798850741041</v>
+        <v>17.99193381575785</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.14979989924071</v>
+        <v>36.40363177304553</v>
       </c>
       <c r="C7">
-        <v>23.04693763051549</v>
+        <v>30.2257963014783</v>
       </c>
       <c r="D7">
-        <v>6.456442607348767</v>
+        <v>6.587783999898972</v>
       </c>
       <c r="E7">
-        <v>26.54841307911507</v>
+        <v>27.13467264965857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.049499565835633</v>
+        <v>2.010006328931798</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.21176897543522</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.64201159543462</v>
+        <v>18.13388565133299</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.54828072764361</v>
+        <v>40.8753602399068</v>
       </c>
       <c r="C8">
-        <v>25.78216102709136</v>
+        <v>33.99740520843739</v>
       </c>
       <c r="D8">
-        <v>7.201819260376473</v>
+        <v>7.3863328107343</v>
       </c>
       <c r="E8">
-        <v>29.78264059941396</v>
+        <v>30.62618322963218</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.020222800923777</v>
+        <v>1.97172373204479</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.30035220037278</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.24996365759705</v>
+        <v>18.78557023643992</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>38.94596036920455</v>
+        <v>49.61233386771325</v>
       </c>
       <c r="C9">
-        <v>30.95005871190279</v>
+        <v>41.40229600477399</v>
       </c>
       <c r="D9">
-        <v>8.591855483005407</v>
+        <v>8.931563609261312</v>
       </c>
       <c r="E9">
-        <v>35.98180652422065</v>
+        <v>37.62674505187202</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.960689161148057</v>
+        <v>1.889898680190072</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.1059794883593</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.52426828706981</v>
+        <v>20.20420348264149</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43.63719150455857</v>
+        <v>56.50938298210778</v>
       </c>
       <c r="C10">
-        <v>34.76343323151435</v>
+        <v>47.29917719158895</v>
       </c>
       <c r="D10">
-        <v>9.600993447128268</v>
+        <v>10.13681509624685</v>
       </c>
       <c r="E10">
-        <v>40.66464730897006</v>
+        <v>43.41600043910505</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.913132632628386</v>
+        <v>1.818169076195397</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.36243990817491</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.54482459749395</v>
+        <v>21.42331248377581</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45.82619786823916</v>
+        <v>60.0085104854973</v>
       </c>
       <c r="C11">
-        <v>36.55211437997983</v>
+        <v>50.31543789332695</v>
       </c>
       <c r="D11">
-        <v>10.06877406782473</v>
+        <v>10.74220391036071</v>
       </c>
       <c r="E11">
-        <v>42.90449214731939</v>
+        <v>46.48781425584279</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.889741168477334</v>
+        <v>1.779135051696026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.34979840137986</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.04048108764716</v>
+        <v>22.06366195926461</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46.67085732153222</v>
+        <v>61.43862950007703</v>
       </c>
       <c r="C12">
-        <v>37.24415554001331</v>
+        <v>51.5541098658051</v>
       </c>
       <c r="D12">
-        <v>10.24870024557295</v>
+        <v>10.98817703836809</v>
       </c>
       <c r="E12">
-        <v>43.78000356581189</v>
+        <v>47.77778447436759</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.880502648968489</v>
+        <v>1.76263216311911</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>42.1169882432516</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.23451961243581</v>
+        <v>22.32818838524947</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46.48807543594741</v>
+        <v>61.12439429922583</v>
       </c>
       <c r="C13">
-        <v>37.09430710501121</v>
+        <v>51.28162007964646</v>
       </c>
       <c r="D13">
-        <v>10.20979293553338</v>
+        <v>10.93420998085048</v>
       </c>
       <c r="E13">
-        <v>43.58997573855732</v>
+        <v>47.49241426045217</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.882512035551483</v>
+        <v>1.766286484260169</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.95095223185446</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.19240793488282</v>
+        <v>22.26995375623288</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45.89531379913451</v>
+        <v>60.12353458799996</v>
       </c>
       <c r="C14">
-        <v>36.60870143808092</v>
+        <v>50.41492834784073</v>
       </c>
       <c r="D14">
-        <v>10.0835092656039</v>
+        <v>10.76202110556373</v>
       </c>
       <c r="E14">
-        <v>42.97588400384805</v>
+        <v>46.59075579827385</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.888989711218368</v>
+        <v>1.777819806017566</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>41.41256732353204</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.05630365401635</v>
+        <v>22.08488707697544</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45.53457905455751</v>
+        <v>59.526733858447</v>
       </c>
       <c r="C15">
-        <v>36.31343606273379</v>
+        <v>49.89897200006669</v>
       </c>
       <c r="D15">
-        <v>10.00657838695306</v>
+        <v>10.65913864924604</v>
       </c>
       <c r="E15">
-        <v>42.60374448666312</v>
+        <v>46.05810949874829</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.892902989579859</v>
+        <v>1.784621286699141</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>41.08497404047769</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.97383251477668</v>
+        <v>21.97486704253146</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43.49582638127112</v>
+        <v>56.29140135328645</v>
       </c>
       <c r="C16">
-        <v>34.64814398848864</v>
+        <v>47.1118913061199</v>
       </c>
       <c r="D16">
-        <v>9.570713601906283</v>
+        <v>10.09895132939566</v>
       </c>
       <c r="E16">
-        <v>40.52133236306077</v>
+        <v>43.22811803957333</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.914616377966327</v>
+        <v>1.820539650248393</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.23413377347528</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.51320061328678</v>
+        <v>21.38381678722531</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42.26368221823036</v>
+        <v>54.42342259845596</v>
       </c>
       <c r="C17">
-        <v>33.64434178479654</v>
+        <v>45.50962162506272</v>
       </c>
       <c r="D17">
-        <v>9.306443777360304</v>
+        <v>9.773826418290406</v>
       </c>
       <c r="E17">
-        <v>39.27846127945221</v>
+        <v>41.63267456910015</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.927413265966313</v>
+        <v>1.840569906208396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.11596094149735</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.23970421543267</v>
+        <v>21.04763269244523</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>41.55953592951941</v>
+        <v>53.37856787804704</v>
       </c>
       <c r="C18">
-        <v>33.07150864864787</v>
+        <v>44.61535645682887</v>
       </c>
       <c r="D18">
-        <v>9.155142476474202</v>
+        <v>9.591481488752182</v>
       </c>
       <c r="E18">
-        <v>38.57298433350287</v>
+        <v>40.75087004875536</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.934618392284744</v>
+        <v>1.851555620989027</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.47704817635294</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.08520592641897</v>
+        <v>20.86152188666561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41.32172330437833</v>
+        <v>53.02895556191791</v>
       </c>
       <c r="C19">
-        <v>32.87817328122339</v>
+        <v>44.31642840111761</v>
       </c>
       <c r="D19">
-        <v>9.103998606399747</v>
+        <v>9.530393970471675</v>
       </c>
       <c r="E19">
-        <v>38.3354697928621</v>
+        <v>40.45739075256611</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.937034227670657</v>
+        <v>1.855197127045835</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.26128038896105</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.03333570656981</v>
+        <v>20.7995848244398</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42.39432996389252</v>
+        <v>54.61897807250124</v>
       </c>
       <c r="C20">
-        <v>33.75068968358298</v>
+        <v>45.67714452216826</v>
       </c>
       <c r="D20">
-        <v>9.334494424645813</v>
+        <v>9.807916411571433</v>
       </c>
       <c r="E20">
-        <v>39.40972950207404</v>
+        <v>41.79852636991195</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.926067826135622</v>
+        <v>1.838496579241087</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.2345125169311</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.26851710118214</v>
+        <v>21.08262618602156</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.06891258720471</v>
+        <v>60.41392672697503</v>
       </c>
       <c r="C21">
-        <v>36.75086290343209</v>
+        <v>50.66620736098367</v>
       </c>
       <c r="D21">
-        <v>10.12051008137902</v>
+        <v>10.81202641565291</v>
       </c>
       <c r="E21">
-        <v>43.15539165030533</v>
+        <v>46.85125769030354</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.887098745301213</v>
+        <v>1.774489979116145</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.57023034321052</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.09608917861738</v>
+        <v>22.13851403877474</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48.569388768035</v>
+        <v>64.91092554137407</v>
       </c>
       <c r="C22">
-        <v>38.80381736127654</v>
+        <v>54.57840559780705</v>
       </c>
       <c r="D22">
-        <v>10.65186196611888</v>
+        <v>11.58113393608045</v>
       </c>
       <c r="E22">
-        <v>45.77379052913283</v>
+        <v>51.01420975514669</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.859292886593251</v>
+        <v>1.721153927572241</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.84225620001354</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.6756384734462</v>
+        <v>23.1573519199364</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>47.22196394153345</v>
+        <v>62.40429422483577</v>
       </c>
       <c r="C23">
-        <v>37.69628333135412</v>
+        <v>52.39267336116114</v>
       </c>
       <c r="D23">
-        <v>10.36591351114453</v>
+        <v>11.15372366776827</v>
       </c>
       <c r="E23">
-        <v>44.35493171898744</v>
+        <v>48.66200305210383</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.874409767643086</v>
+        <v>1.751301039235613</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>42.61766943264526</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.36188480843874</v>
+        <v>22.50748463333166</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>42.3352514704019</v>
+        <v>54.53047987172666</v>
       </c>
       <c r="C24">
-        <v>33.70259697785071</v>
+        <v>45.60132634669201</v>
       </c>
       <c r="D24">
-        <v>9.321810865450818</v>
+        <v>9.792490559816992</v>
       </c>
       <c r="E24">
-        <v>39.35035567171136</v>
+        <v>41.72343790855136</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.92667656424159</v>
+        <v>1.839435536120532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.1809035683802</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.2554823887913</v>
+        <v>21.06678385434532</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>37.2309536585816</v>
+        <v>47.21552879154417</v>
       </c>
       <c r="C25">
-        <v>29.56159785756027</v>
+        <v>39.36493180684817</v>
       </c>
       <c r="D25">
-        <v>8.22080073953267</v>
+        <v>8.509593758642083</v>
       </c>
       <c r="E25">
-        <v>34.30219392545389</v>
+        <v>35.67646323307029</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.97723385380902</v>
+        <v>1.913310617191883</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.55017021436366</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.1679256101243</v>
+        <v>19.79868713976751</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.07355435930133</v>
+        <v>26.51420687852702</v>
       </c>
       <c r="C2">
-        <v>35.00972282562169</v>
+        <v>19.97425191547378</v>
       </c>
       <c r="D2">
-        <v>7.599391945473155</v>
+        <v>6.008491069640167</v>
       </c>
       <c r="E2">
-        <v>31.57040179350977</v>
+        <v>16.31158006290931</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.961064174238532</v>
+        <v>3.673851184767146</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.96962157987537</v>
+        <v>21.15869419480933</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.58667748148729</v>
+        <v>25.53506499953264</v>
       </c>
       <c r="C3">
-        <v>32.06591871286636</v>
+        <v>18.99652904208748</v>
       </c>
       <c r="D3">
-        <v>6.978317896901734</v>
+        <v>5.898023069255254</v>
       </c>
       <c r="E3">
-        <v>28.83338142179412</v>
+        <v>15.38411371669625</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.99160886349523</v>
+        <v>3.681640217266894</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.44479151600335</v>
+        <v>21.02631633553118</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.41566038942596</v>
+        <v>24.92636596317875</v>
       </c>
       <c r="C4">
-        <v>30.23593038218347</v>
+        <v>18.37898605555558</v>
       </c>
       <c r="D4">
-        <v>6.589939657624927</v>
+        <v>5.831572695935431</v>
       </c>
       <c r="E4">
-        <v>27.14400595379297</v>
+        <v>14.7932007304306</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.009906457659925</v>
+        <v>3.686638508909442</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.13555888798154</v>
+        <v>20.94588154569605</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.52028625097373</v>
+        <v>24.67685201298982</v>
       </c>
       <c r="C5">
-        <v>29.48171253840469</v>
+        <v>18.12337967830436</v>
       </c>
       <c r="D5">
-        <v>6.429358406582376</v>
+        <v>5.804874021953246</v>
       </c>
       <c r="E5">
-        <v>26.44999139045136</v>
+        <v>14.54727872259114</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.017295701012718</v>
+        <v>3.688730027775257</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.01225766048632</v>
+        <v>20.91332211841607</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.3708899685427</v>
+        <v>24.63534500316673</v>
       </c>
       <c r="C6">
-        <v>29.35589354388314</v>
+        <v>18.08070981099538</v>
       </c>
       <c r="D6">
-        <v>6.402540683500435</v>
+        <v>5.800464683044735</v>
       </c>
       <c r="E6">
-        <v>26.33433128802917</v>
+        <v>14.5061433297505</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.018519801349688</v>
+        <v>3.689080637043328</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.99193381575785</v>
+        <v>20.90792899872004</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.40363177304553</v>
+        <v>24.9230062753449</v>
       </c>
       <c r="C7">
-        <v>30.2257963014783</v>
+        <v>18.37555432376747</v>
       </c>
       <c r="D7">
-        <v>6.587783999898972</v>
+        <v>5.831211043613751</v>
       </c>
       <c r="E7">
-        <v>27.13467264965857</v>
+        <v>14.78990447253269</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.010006328931798</v>
+        <v>3.686666493946291</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.13388565133299</v>
+        <v>20.94544154637783</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40.8753602399068</v>
+        <v>26.17839815314228</v>
       </c>
       <c r="C8">
-        <v>33.99740520843739</v>
+        <v>19.6409157296671</v>
       </c>
       <c r="D8">
-        <v>7.3863328107343</v>
+        <v>5.970136406583868</v>
       </c>
       <c r="E8">
-        <v>30.62618322963218</v>
+        <v>15.99638800390183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.97172373204479</v>
+        <v>3.676492304710149</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.78557023643992</v>
+        <v>21.11287833774615</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49.61233386771325</v>
+        <v>28.56398378101553</v>
       </c>
       <c r="C9">
-        <v>41.40229600477399</v>
+        <v>21.97180521676237</v>
       </c>
       <c r="D9">
-        <v>8.931563609261312</v>
+        <v>6.251984177019161</v>
       </c>
       <c r="E9">
-        <v>37.62674505187202</v>
+        <v>18.21770676935669</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.889898680190072</v>
+        <v>3.658234015458674</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.20420348264149</v>
+        <v>21.44766882651193</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56.50938298210778</v>
+        <v>30.25045632413138</v>
       </c>
       <c r="C10">
-        <v>47.29917719158895</v>
+        <v>23.57736003608181</v>
       </c>
       <c r="D10">
-        <v>10.13681509624685</v>
+        <v>6.462778638751399</v>
       </c>
       <c r="E10">
-        <v>43.41600043910505</v>
+        <v>19.88784415419331</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.818169076195397</v>
+        <v>3.645825020935097</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.42331248377581</v>
+        <v>21.69720522513668</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60.0085104854973</v>
+        <v>30.99985928464922</v>
       </c>
       <c r="C11">
-        <v>50.31543789332695</v>
+        <v>24.28216669849652</v>
       </c>
       <c r="D11">
-        <v>10.74220391036071</v>
+        <v>6.559066181512739</v>
       </c>
       <c r="E11">
-        <v>46.48781425584279</v>
+        <v>20.60800101663241</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.779135051696026</v>
+        <v>3.640392225937446</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.06366195926461</v>
+        <v>21.81141568462883</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61.43862950007703</v>
+        <v>31.28084151399185</v>
       </c>
       <c r="C12">
-        <v>51.5541098658051</v>
+        <v>24.54522954660797</v>
       </c>
       <c r="D12">
-        <v>10.98817703836809</v>
+        <v>6.595551420759634</v>
       </c>
       <c r="E12">
-        <v>47.77778447436759</v>
+        <v>20.87506636176481</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.76263216311911</v>
+        <v>3.63836498885323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.32818838524947</v>
+        <v>21.8547561901627</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61.12439429922583</v>
+        <v>31.2204550461224</v>
       </c>
       <c r="C13">
-        <v>51.28162007964646</v>
+        <v>24.48874685325677</v>
       </c>
       <c r="D13">
-        <v>10.93420998085048</v>
+        <v>6.587693159327261</v>
       </c>
       <c r="E13">
-        <v>47.49241426045217</v>
+        <v>20.81779918334653</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.766286484260169</v>
+        <v>3.638800261787373</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.26995375623288</v>
+        <v>21.84541810520479</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>60.12353458799996</v>
+        <v>31.02303326570442</v>
       </c>
       <c r="C14">
-        <v>50.41492834784073</v>
+        <v>24.30388662427506</v>
       </c>
       <c r="D14">
-        <v>10.76202110556373</v>
+        <v>6.562067566261404</v>
       </c>
       <c r="E14">
-        <v>46.59075579827385</v>
+        <v>20.63008542853018</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.777819806017566</v>
+        <v>3.640224844445886</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.08488707697544</v>
+        <v>21.81497954997606</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59.526733858447</v>
+        <v>30.9017353567615</v>
       </c>
       <c r="C15">
-        <v>49.89897200006669</v>
+        <v>24.1901512324367</v>
       </c>
       <c r="D15">
-        <v>10.65913864924604</v>
+        <v>6.54637320102055</v>
       </c>
       <c r="E15">
-        <v>46.05810949874829</v>
+        <v>20.51437206199922</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.784621286699141</v>
+        <v>3.641101341381816</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.97486704253146</v>
+        <v>21.79634671465571</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56.29140135328645</v>
+        <v>30.20110171166966</v>
       </c>
       <c r="C16">
-        <v>47.1118913061199</v>
+        <v>23.53077078611603</v>
       </c>
       <c r="D16">
-        <v>10.09895132939566</v>
+        <v>6.456491076374125</v>
       </c>
       <c r="E16">
-        <v>43.22811803957333</v>
+        <v>19.83998781434145</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.820539650248393</v>
+        <v>3.64618429629908</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.38381678722531</v>
+        <v>21.68975457115377</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54.42342259845596</v>
+        <v>29.76654771189341</v>
       </c>
       <c r="C17">
-        <v>45.50962162506272</v>
+        <v>23.1195932640692</v>
       </c>
       <c r="D17">
-        <v>9.773826418290406</v>
+        <v>6.401428312661881</v>
       </c>
       <c r="E17">
-        <v>41.63267456910015</v>
+        <v>19.41616972614779</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.840569906208396</v>
+        <v>3.649356530245039</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.04763269244523</v>
+        <v>21.62453582145292</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>53.37856787804704</v>
+        <v>29.51494243612995</v>
       </c>
       <c r="C18">
-        <v>44.61535645682887</v>
+        <v>22.88069544491675</v>
       </c>
       <c r="D18">
-        <v>9.591481488752182</v>
+        <v>6.369796884021234</v>
       </c>
       <c r="E18">
-        <v>40.75087004875536</v>
+        <v>19.16867060173518</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.851555620989027</v>
+        <v>3.65120110887022</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.86152188666561</v>
+        <v>21.58708967111163</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53.02895556191791</v>
+        <v>29.42947583355726</v>
       </c>
       <c r="C19">
-        <v>44.31642840111761</v>
+        <v>22.79940188638683</v>
       </c>
       <c r="D19">
-        <v>9.530393970471675</v>
+        <v>6.35909481200681</v>
       </c>
       <c r="E19">
-        <v>40.45739075256611</v>
+        <v>19.08422942702175</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.855197127045835</v>
+        <v>3.651829099216403</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.7995848244398</v>
+        <v>21.57442262930251</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54.61897807250124</v>
+        <v>29.81298053241309</v>
       </c>
       <c r="C20">
-        <v>45.67714452216826</v>
+        <v>23.16361336157917</v>
       </c>
       <c r="D20">
-        <v>9.807916411571433</v>
+        <v>6.407286027942141</v>
       </c>
       <c r="E20">
-        <v>41.79852636991195</v>
+        <v>19.46167157136414</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.838496579241087</v>
+        <v>3.649016774556777</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.08262618602156</v>
+        <v>21.63147170383387</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>60.41392672697503</v>
+        <v>31.08109861050079</v>
       </c>
       <c r="C21">
-        <v>50.66620736098367</v>
+        <v>24.35828965023987</v>
       </c>
       <c r="D21">
-        <v>10.81202641565291</v>
+        <v>6.569594054913763</v>
       </c>
       <c r="E21">
-        <v>46.85125769030354</v>
+        <v>20.68537422931629</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.774489979116145</v>
+        <v>3.639805598281951</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.13851403877474</v>
+        <v>21.82391767718045</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>64.91092554137407</v>
+        <v>31.89347353598117</v>
       </c>
       <c r="C22">
-        <v>54.57840559780705</v>
+        <v>25.11669099198368</v>
       </c>
       <c r="D22">
-        <v>11.58113393608045</v>
+        <v>6.675792623451391</v>
       </c>
       <c r="E22">
-        <v>51.01420975514669</v>
+        <v>21.4522705459396</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.721153927572241</v>
+        <v>3.633960465056922</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.1573519199364</v>
+        <v>21.95022141477427</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62.40429422483577</v>
+        <v>31.46146777671606</v>
       </c>
       <c r="C23">
-        <v>52.39267336116114</v>
+        <v>24.7140103772524</v>
       </c>
       <c r="D23">
-        <v>11.15372366776827</v>
+        <v>6.619112134825506</v>
       </c>
       <c r="E23">
-        <v>48.66200305210383</v>
+        <v>21.04595345041047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.751301039235613</v>
+        <v>3.637064272775887</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.50748463333166</v>
+        <v>21.88276516421909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54.53047987172666</v>
+        <v>29.79199376227679</v>
       </c>
       <c r="C24">
-        <v>45.60132634669201</v>
+        <v>23.14371967021903</v>
       </c>
       <c r="D24">
-        <v>9.792490559816992</v>
+        <v>6.404637674769112</v>
       </c>
       <c r="E24">
-        <v>41.72343790855136</v>
+        <v>19.44111215321573</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.839435536120532</v>
+        <v>3.649170313222658</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.06678385434532</v>
+        <v>21.62833583821499</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47.21552879154417</v>
+        <v>27.92896241018412</v>
       </c>
       <c r="C25">
-        <v>39.36493180684817</v>
+        <v>21.35908753257609</v>
       </c>
       <c r="D25">
-        <v>8.509593758642083</v>
+        <v>6.174938969342484</v>
       </c>
       <c r="E25">
-        <v>35.67646323307029</v>
+        <v>17.6115994931377</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.913310617191883</v>
+        <v>3.662994843394838</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.79868713976751</v>
+        <v>21.35644493247034</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.51420687852702</v>
+        <v>42.07355435930143</v>
       </c>
       <c r="C2">
-        <v>19.97425191547378</v>
+        <v>35.00972282562173</v>
       </c>
       <c r="D2">
-        <v>6.008491069640167</v>
+        <v>7.599391945473222</v>
       </c>
       <c r="E2">
-        <v>16.31158006290931</v>
+        <v>31.5704017935098</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.673851184767146</v>
+        <v>1.961064174238415</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.15869419480933</v>
+        <v>18.9696215798754</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.53506499953264</v>
+        <v>38.58667748148714</v>
       </c>
       <c r="C3">
-        <v>18.99652904208748</v>
+        <v>32.06591871286625</v>
       </c>
       <c r="D3">
-        <v>5.898023069255254</v>
+        <v>6.978317896901657</v>
       </c>
       <c r="E3">
-        <v>15.38411371669625</v>
+        <v>28.83338142179417</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.681640217266894</v>
+        <v>1.991608863495499</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.02631633553118</v>
+        <v>18.44479151600335</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.92636596317875</v>
+        <v>36.41566038942582</v>
       </c>
       <c r="C4">
-        <v>18.37898605555558</v>
+        <v>30.23593038218333</v>
       </c>
       <c r="D4">
-        <v>5.831572695935431</v>
+        <v>6.589939657624852</v>
       </c>
       <c r="E4">
-        <v>14.7932007304306</v>
+        <v>27.14400595379278</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.686638508909442</v>
+        <v>2.009906457659929</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.94588154569605</v>
+        <v>18.13555888798162</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.67685201298982</v>
+        <v>35.52028625097357</v>
       </c>
       <c r="C5">
-        <v>18.12337967830436</v>
+        <v>29.48171253840468</v>
       </c>
       <c r="D5">
-        <v>5.804874021953246</v>
+        <v>6.429358406582436</v>
       </c>
       <c r="E5">
-        <v>14.54727872259114</v>
+        <v>26.44999139045121</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.688730027775257</v>
+        <v>2.017295701012718</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.91332211841607</v>
+        <v>18.01225766048639</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.63534500316673</v>
+        <v>35.37088996854257</v>
       </c>
       <c r="C6">
-        <v>18.08070981099538</v>
+        <v>29.35589354388303</v>
       </c>
       <c r="D6">
-        <v>5.800464683044735</v>
+        <v>6.402540683500433</v>
       </c>
       <c r="E6">
-        <v>14.5061433297505</v>
+        <v>26.33433128802914</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.689080637043328</v>
+        <v>2.018519801349809</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.90792899872004</v>
+        <v>17.9919338157579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.9230062753449</v>
+        <v>36.40363177304574</v>
       </c>
       <c r="C7">
-        <v>18.37555432376747</v>
+        <v>30.2257963014784</v>
       </c>
       <c r="D7">
-        <v>5.831211043613751</v>
+        <v>6.587783999899001</v>
       </c>
       <c r="E7">
-        <v>14.78990447253269</v>
+        <v>27.13467264965882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.686666493946291</v>
+        <v>2.010006328931539</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.94544154637783</v>
+        <v>18.133885651333</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.17839815314228</v>
+        <v>40.87536023990688</v>
       </c>
       <c r="C8">
-        <v>19.6409157296671</v>
+        <v>33.99740520843746</v>
       </c>
       <c r="D8">
-        <v>5.970136406583868</v>
+        <v>7.386332810734272</v>
       </c>
       <c r="E8">
-        <v>15.99638800390183</v>
+        <v>30.62618322963215</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.676492304710149</v>
+        <v>1.971723732044762</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.11287833774615</v>
+        <v>18.78557023643989</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.56398378101553</v>
+        <v>49.61233386771329</v>
       </c>
       <c r="C9">
-        <v>21.97180521676237</v>
+        <v>41.40229600477407</v>
       </c>
       <c r="D9">
-        <v>6.251984177019161</v>
+        <v>8.931563609261438</v>
       </c>
       <c r="E9">
-        <v>18.21770676935669</v>
+        <v>37.62674505187206</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.658234015458674</v>
+        <v>1.889898680189957</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.44766882651193</v>
+        <v>20.20420348264149</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.25045632413138</v>
+        <v>56.50938298210782</v>
       </c>
       <c r="C10">
-        <v>23.57736003608181</v>
+        <v>47.2991771915889</v>
       </c>
       <c r="D10">
-        <v>6.462778638751399</v>
+        <v>10.13681509624683</v>
       </c>
       <c r="E10">
-        <v>19.88784415419331</v>
+        <v>43.41600043910507</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.645825020935097</v>
+        <v>1.81816907619554</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.69720522513668</v>
+        <v>21.42331248377577</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.99985928464922</v>
+        <v>60.00851048549707</v>
       </c>
       <c r="C11">
-        <v>24.28216669849652</v>
+        <v>50.31543789332663</v>
       </c>
       <c r="D11">
-        <v>6.559066181512739</v>
+        <v>10.74220391036058</v>
       </c>
       <c r="E11">
-        <v>20.60800101663241</v>
+        <v>46.48781425584252</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.640392225937446</v>
+        <v>1.779135051695762</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.81141568462883</v>
+        <v>22.06366195926455</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.28084151399185</v>
+        <v>61.43862950007735</v>
       </c>
       <c r="C12">
-        <v>24.54522954660797</v>
+        <v>51.55410986580517</v>
       </c>
       <c r="D12">
-        <v>6.595551420759634</v>
+        <v>10.98817703836819</v>
       </c>
       <c r="E12">
-        <v>20.87506636176481</v>
+        <v>47.77778447436772</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.63836498885323</v>
+        <v>1.762632163118989</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.8547561901627</v>
+        <v>22.32818838524953</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.2204550461224</v>
+        <v>61.12439429922528</v>
       </c>
       <c r="C13">
-        <v>24.48874685325677</v>
+        <v>51.28162007964602</v>
       </c>
       <c r="D13">
-        <v>6.587693159327261</v>
+        <v>10.93420998085031</v>
       </c>
       <c r="E13">
-        <v>20.81779918334653</v>
+        <v>47.49241426045162</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.638800261787373</v>
+        <v>1.766286484260094</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.84541810520479</v>
+        <v>22.26995375623278</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.02303326570442</v>
+        <v>60.12353458800023</v>
       </c>
       <c r="C14">
-        <v>24.30388662427506</v>
+        <v>50.41492834784091</v>
       </c>
       <c r="D14">
-        <v>6.562067566261404</v>
+        <v>10.7620211055637</v>
       </c>
       <c r="E14">
-        <v>20.63008542853018</v>
+        <v>46.59075579827399</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.640224844445886</v>
+        <v>1.777819806017549</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.81497954997606</v>
+        <v>22.08488707697538</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.9017353567615</v>
+        <v>59.52673385844766</v>
       </c>
       <c r="C15">
-        <v>24.1901512324367</v>
+        <v>49.89897200006726</v>
       </c>
       <c r="D15">
-        <v>6.54637320102055</v>
+        <v>10.65913864924616</v>
       </c>
       <c r="E15">
-        <v>20.51437206199922</v>
+        <v>46.05810949874873</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.641101341381816</v>
+        <v>1.784621286699284</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.79634671465571</v>
+        <v>21.97486704253159</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.20110171166966</v>
+        <v>56.29140135328592</v>
       </c>
       <c r="C16">
-        <v>23.53077078611603</v>
+        <v>47.11189130611952</v>
       </c>
       <c r="D16">
-        <v>6.456491076374125</v>
+        <v>10.09895132939564</v>
       </c>
       <c r="E16">
-        <v>19.83998781434145</v>
+        <v>43.22811803957301</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.64618429629908</v>
+        <v>1.820539650248541</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.68975457115377</v>
+        <v>21.38381678722525</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.76654771189341</v>
+        <v>54.42342259845559</v>
       </c>
       <c r="C17">
-        <v>23.1195932640692</v>
+        <v>45.5096216250623</v>
       </c>
       <c r="D17">
-        <v>6.401428312661881</v>
+        <v>9.773826418290362</v>
       </c>
       <c r="E17">
-        <v>19.41616972614779</v>
+        <v>41.63267456909994</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.649356530245039</v>
+        <v>1.840569906208546</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.62453582145292</v>
+        <v>21.04763269244517</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.51494243612995</v>
+        <v>53.37856787804718</v>
       </c>
       <c r="C18">
-        <v>22.88069544491675</v>
+        <v>44.61535645682904</v>
       </c>
       <c r="D18">
-        <v>6.369796884021234</v>
+        <v>9.591481488752116</v>
       </c>
       <c r="E18">
-        <v>19.16867060173518</v>
+        <v>40.75087004875534</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.65120110887022</v>
+        <v>1.851555620989027</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.58708967111163</v>
+        <v>20.8615218866657</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.42947583355726</v>
+        <v>53.02895556191757</v>
       </c>
       <c r="C19">
-        <v>22.79940188638683</v>
+        <v>44.31642840111725</v>
       </c>
       <c r="D19">
-        <v>6.35909481200681</v>
+        <v>9.53039397047165</v>
       </c>
       <c r="E19">
-        <v>19.08422942702175</v>
+        <v>40.45739075256588</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.651829099216403</v>
+        <v>1.855197127045732</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.57442262930251</v>
+        <v>20.79958482443974</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.81298053241309</v>
+        <v>54.6189780725012</v>
       </c>
       <c r="C20">
-        <v>23.16361336157917</v>
+        <v>45.67714452216825</v>
       </c>
       <c r="D20">
-        <v>6.407286027942141</v>
+        <v>9.807916411571355</v>
       </c>
       <c r="E20">
-        <v>19.46167157136414</v>
+        <v>41.79852636991199</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.649016774556777</v>
+        <v>1.838496579241082</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.63147170383387</v>
+        <v>21.0826261860216</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.08109861050079</v>
+        <v>60.41392672697488</v>
       </c>
       <c r="C21">
-        <v>24.35828965023987</v>
+        <v>50.66620736098351</v>
       </c>
       <c r="D21">
-        <v>6.569594054913763</v>
+        <v>10.81202641565288</v>
       </c>
       <c r="E21">
-        <v>20.68537422931629</v>
+        <v>46.85125769030349</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.639805598281951</v>
+        <v>1.774489979116277</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.82391767718045</v>
+        <v>22.13851403877471</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.89347353598117</v>
+        <v>64.9109255413746</v>
       </c>
       <c r="C22">
-        <v>25.11669099198368</v>
+        <v>54.57840559780753</v>
       </c>
       <c r="D22">
-        <v>6.675792623451391</v>
+        <v>11.58113393608057</v>
       </c>
       <c r="E22">
-        <v>21.4522705459396</v>
+        <v>51.01420975514694</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.633960465056922</v>
+        <v>1.721153927572115</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.95022141477427</v>
+        <v>23.15735191993661</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46146777671606</v>
+        <v>62.40429422483567</v>
       </c>
       <c r="C23">
-        <v>24.7140103772524</v>
+        <v>52.3926733611608</v>
       </c>
       <c r="D23">
-        <v>6.619112134825506</v>
+        <v>11.15372366776823</v>
       </c>
       <c r="E23">
-        <v>21.04595345041047</v>
+        <v>48.6620030521039</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.637064272775887</v>
+        <v>1.751301039235635</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.88276516421909</v>
+        <v>22.50748463333153</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.79199376227679</v>
+        <v>54.53047987172663</v>
       </c>
       <c r="C24">
-        <v>23.14371967021903</v>
+        <v>45.60132634669206</v>
       </c>
       <c r="D24">
-        <v>6.404637674769112</v>
+        <v>9.792490559817022</v>
       </c>
       <c r="E24">
-        <v>19.44111215321573</v>
+        <v>41.7234379085515</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.649170313222658</v>
+        <v>1.839435536120537</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.62833583821499</v>
+        <v>21.06678385434522</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92896241018412</v>
+        <v>47.21552879154456</v>
       </c>
       <c r="C25">
-        <v>21.35908753257609</v>
+        <v>39.36493180684828</v>
       </c>
       <c r="D25">
-        <v>6.174938969342484</v>
+        <v>8.509593758642183</v>
       </c>
       <c r="E25">
-        <v>17.6115994931377</v>
+        <v>35.67646323307049</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.662994843394838</v>
+        <v>1.913310617192012</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.35644493247034</v>
+        <v>19.79868713976756</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42.07355435930143</v>
+        <v>14.44139837502329</v>
       </c>
       <c r="C2">
-        <v>35.00972282562173</v>
+        <v>11.27130214657947</v>
       </c>
       <c r="D2">
-        <v>7.599391945473222</v>
+        <v>7.076360133595444</v>
       </c>
       <c r="E2">
-        <v>31.5704017935098</v>
+        <v>28.25008000541627</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.961064174238415</v>
+        <v>38.76485768443379</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.48694303557505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.559830942890876</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.29554085861821</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.68777089770549</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.70130294451294</v>
       </c>
       <c r="N2">
-        <v>18.9696215798754</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.46236765408614</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.58667748148714</v>
+        <v>13.46818464663591</v>
       </c>
       <c r="C3">
-        <v>32.06591871286625</v>
+        <v>10.49901802424879</v>
       </c>
       <c r="D3">
-        <v>6.978317896901657</v>
+        <v>6.587634786267765</v>
       </c>
       <c r="E3">
-        <v>28.83338142179417</v>
+        <v>26.34461299385069</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.991608863495499</v>
+        <v>37.26239523351835</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.220476901268593</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.765517609993424</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.09211978219316</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.38788687781317</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.80793341176583</v>
       </c>
       <c r="N3">
-        <v>18.44479151600335</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.58018173510166</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.41566038942582</v>
+        <v>12.83261523954652</v>
       </c>
       <c r="C4">
-        <v>30.23593038218333</v>
+        <v>10.0020695024787</v>
       </c>
       <c r="D4">
-        <v>6.589939657624852</v>
+        <v>6.277152100298598</v>
       </c>
       <c r="E4">
-        <v>27.14400595379278</v>
+        <v>25.10791640835334</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.009906457659929</v>
+        <v>36.3187967251796</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.051416705645477</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.896688553819612</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.96819333324651</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.20374078945827</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.22773809580573</v>
       </c>
       <c r="N4">
-        <v>18.13555888798162</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.65321837432311</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.52028625097357</v>
+        <v>12.55757778468604</v>
       </c>
       <c r="C5">
-        <v>29.48171253840468</v>
+        <v>9.801295723298406</v>
       </c>
       <c r="D5">
-        <v>6.429358406582436</v>
+        <v>6.164097203971878</v>
       </c>
       <c r="E5">
-        <v>26.44999139045121</v>
+        <v>24.58678859778876</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.017295701012718</v>
+        <v>35.90681596691346</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.980900618259832</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.954459691934267</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.91364811758866</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.11912418618482</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.98169615095766</v>
       </c>
       <c r="N5">
-        <v>18.01225766048639</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.68074467119711</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.37088996854257</v>
+        <v>12.50347901530253</v>
       </c>
       <c r="C6">
-        <v>29.35589354388303</v>
+        <v>9.776782453520234</v>
       </c>
       <c r="D6">
-        <v>6.402540683500433</v>
+        <v>6.145149500935416</v>
       </c>
       <c r="E6">
-        <v>26.33433128802914</v>
+        <v>24.49888934336587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.018519801349809</v>
+        <v>35.81049611186863</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.968833440321538</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.968081806039971</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.89933600281561</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.09333371971028</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.93837545224844</v>
       </c>
       <c r="N6">
-        <v>17.9919338157579</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.68237751907239</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.40363177304574</v>
+        <v>12.80803261638671</v>
       </c>
       <c r="C7">
-        <v>30.2257963014784</v>
+        <v>10.02380109566744</v>
       </c>
       <c r="D7">
-        <v>6.587783999899001</v>
+        <v>6.275568898999848</v>
       </c>
       <c r="E7">
-        <v>27.13467264965882</v>
+        <v>25.10002717301409</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.010006328931539</v>
+        <v>36.23879034404132</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.049735589662383</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.907989169092347</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.95314396393572</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.17069670621581</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.21915547287029</v>
       </c>
       <c r="N7">
-        <v>18.133885651333</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.64557311202156</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40.87536023990688</v>
+        <v>14.08815718721025</v>
       </c>
       <c r="C8">
-        <v>33.99740520843746</v>
+        <v>11.03936856276986</v>
       </c>
       <c r="D8">
-        <v>7.386332810734272</v>
+        <v>6.911196122713384</v>
       </c>
       <c r="E8">
-        <v>30.62618322963215</v>
+        <v>27.60566936353434</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.971723732044762</v>
+        <v>38.15745662849275</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.395243174097102</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.643537756884867</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.20668622990459</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.54302744573052</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.39330971228519</v>
       </c>
       <c r="N8">
-        <v>18.78557023643989</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.49240839167722</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49.61233386771329</v>
+        <v>16.33290214264835</v>
       </c>
       <c r="C9">
-        <v>41.40229600477407</v>
+        <v>12.81386196533087</v>
       </c>
       <c r="D9">
-        <v>8.931563609261438</v>
+        <v>8.038705241919436</v>
       </c>
       <c r="E9">
-        <v>37.62674505187206</v>
+        <v>31.9961912302034</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.889898680189957</v>
+        <v>41.86131873162623</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.032173168692201</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.800131753632053</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.73564328253798</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.32734818754152</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.4545764625817</v>
       </c>
       <c r="N9">
-        <v>20.20420348264149</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.21146873566443</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56.50938298210782</v>
+        <v>17.75183785596229</v>
       </c>
       <c r="C10">
-        <v>47.2991771915889</v>
+        <v>13.94200714069243</v>
       </c>
       <c r="D10">
-        <v>10.13681509624683</v>
+        <v>8.78720775699067</v>
       </c>
       <c r="E10">
-        <v>43.41600043910507</v>
+        <v>34.0271704731441</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.81816907619554</v>
+        <v>44.07357798361066</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.439300849760127</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.128248541878649</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.05003114288475</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.77005522064181</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.76219396498228</v>
       </c>
       <c r="N10">
-        <v>21.42331248377577</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.97293667816004</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60.00851048549707</v>
+        <v>17.96420511176045</v>
       </c>
       <c r="C11">
-        <v>50.31543789332663</v>
+        <v>13.78963522419418</v>
       </c>
       <c r="D11">
-        <v>10.74220391036058</v>
+        <v>9.100194139650135</v>
       </c>
       <c r="E11">
-        <v>46.48781425584252</v>
+        <v>27.38494189865489</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.779135051695762</v>
+        <v>41.96339657084799</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.893785364313743</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.194478598046204</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.56063350186652</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.92158411262387</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.85434641999361</v>
       </c>
       <c r="N11">
-        <v>22.06366195926455</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.59942687817852</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61.43862950007735</v>
+        <v>17.88148486911637</v>
       </c>
       <c r="C12">
-        <v>51.55410986580517</v>
+        <v>13.40767991455245</v>
       </c>
       <c r="D12">
-        <v>10.98817703836819</v>
+        <v>9.212371484149431</v>
       </c>
       <c r="E12">
-        <v>47.77778447436772</v>
+        <v>21.34961239457925</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.762632163118989</v>
+        <v>39.78862785715309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.822726639892962</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.186626677500739</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.0956223203207</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.15312407028834</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.67560258493218</v>
       </c>
       <c r="N12">
-        <v>22.32818838524953</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.36857503372351</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61.12439429922528</v>
+        <v>17.54086699813998</v>
       </c>
       <c r="C13">
-        <v>51.28162007964602</v>
+        <v>12.84244854402551</v>
       </c>
       <c r="D13">
-        <v>10.93420998085031</v>
+        <v>9.180420839029006</v>
       </c>
       <c r="E13">
-        <v>47.49241426045162</v>
+        <v>15.24854797838192</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.766286484260094</v>
+        <v>37.28353096168436</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.941999937799293</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.124980307822746</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.59625627315764</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.34754101959105</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>16.26699883156871</v>
       </c>
       <c r="N13">
-        <v>22.26995375623278</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.22210708498531</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>60.12353458800023</v>
+        <v>17.17705414114477</v>
       </c>
       <c r="C14">
-        <v>50.41492834784091</v>
+        <v>12.36323679761001</v>
       </c>
       <c r="D14">
-        <v>10.7620211055637</v>
+        <v>9.092730885077971</v>
       </c>
       <c r="E14">
-        <v>46.59075579827399</v>
+        <v>10.92469418211993</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.777819806017549</v>
+        <v>35.33968159599146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.79526310374655</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.059494471011276</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.22712504865513</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.75943629744878</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.87151587880689</v>
       </c>
       <c r="N14">
-        <v>22.08488707697538</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.15982973428218</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59.52673385844766</v>
+        <v>17.02505660677661</v>
       </c>
       <c r="C15">
-        <v>49.89897200006726</v>
+        <v>12.21125799113503</v>
       </c>
       <c r="D15">
-        <v>10.65913864924616</v>
+        <v>9.040167725177474</v>
       </c>
       <c r="E15">
-        <v>46.05810949874873</v>
+        <v>9.852875053213664</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.784621286699284</v>
+        <v>34.77062820929699</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.990763122387992</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.032357256830269</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.12613453126962</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.59892126876194</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.72218322061611</v>
       </c>
       <c r="N15">
-        <v>21.97486704253159</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.15818520608678</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56.29140135328592</v>
+        <v>16.47871251843142</v>
       </c>
       <c r="C16">
-        <v>47.11189130611952</v>
+        <v>11.82803872801518</v>
       </c>
       <c r="D16">
-        <v>10.09895132939564</v>
+        <v>8.739268254092099</v>
       </c>
       <c r="E16">
-        <v>43.22811803957301</v>
+        <v>9.709569254302899</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.820539650248541</v>
+        <v>34.17024199466947</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.710670319497167</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.909118263616713</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.07559387389209</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.5418683711371</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.23712087582878</v>
       </c>
       <c r="N16">
-        <v>21.38381678722525</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.28490387221584</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54.42342259845559</v>
+        <v>16.25265069909555</v>
       </c>
       <c r="C17">
-        <v>45.5096216250623</v>
+        <v>11.79723986428839</v>
       </c>
       <c r="D17">
-        <v>9.773826418290362</v>
+        <v>8.552174521582367</v>
       </c>
       <c r="E17">
-        <v>41.63267456909994</v>
+        <v>11.99796371262588</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.840569906208546</v>
+        <v>34.77635886218481</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.989335750943613</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.848565862841872</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.23515242014536</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.81234539865344</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>15.07729110577398</v>
       </c>
       <c r="N17">
-        <v>21.04763269244517</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.41328986015815</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>53.37856787804718</v>
+        <v>16.30142224710948</v>
       </c>
       <c r="C18">
-        <v>44.61535645682904</v>
+        <v>12.06162787980859</v>
       </c>
       <c r="D18">
-        <v>9.591481488752116</v>
+        <v>8.4459947999198</v>
       </c>
       <c r="E18">
-        <v>40.75087004875534</v>
+        <v>16.79221545330857</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.851555620989027</v>
+        <v>36.54031549981385</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.875244271917014</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.835662346341624</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.60327829021324</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.42059421288394</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.19360485740812</v>
       </c>
       <c r="N18">
-        <v>20.8615218866657</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.5742112620497</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53.02895556191757</v>
+        <v>16.53919157917094</v>
       </c>
       <c r="C19">
-        <v>44.31642840111725</v>
+        <v>12.58267034840919</v>
       </c>
       <c r="D19">
-        <v>9.53039397047165</v>
+        <v>8.414556716985079</v>
       </c>
       <c r="E19">
-        <v>40.45739075256588</v>
+        <v>23.22142860421514</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.855197127045732</v>
+        <v>38.96768133788174</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.760344327982307</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.876086894735677</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.0891940509232</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.20950766204399</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.51897666224878</v>
       </c>
       <c r="N19">
-        <v>20.79958482443974</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.75832928683705</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54.6189780725012</v>
+        <v>17.33845202572779</v>
       </c>
       <c r="C20">
-        <v>45.67714452216825</v>
+        <v>13.70607905302158</v>
       </c>
       <c r="D20">
-        <v>9.807916411571355</v>
+        <v>8.595458349396127</v>
       </c>
       <c r="E20">
-        <v>41.79852636991199</v>
+        <v>33.4633679877013</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.838496579241082</v>
+        <v>43.28889392696649</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.329192472762631</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.050484710058049</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.92313785809416</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.55700088885825</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.41285560417181</v>
       </c>
       <c r="N20">
-        <v>21.0826261860216</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.01034925395883</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>60.41392672697488</v>
+        <v>18.45374478554637</v>
       </c>
       <c r="C21">
-        <v>50.66620736098351</v>
+        <v>14.64720747427203</v>
       </c>
       <c r="D21">
-        <v>10.81202641565288</v>
+        <v>9.14762897038122</v>
       </c>
       <c r="E21">
-        <v>46.85125769030349</v>
+        <v>36.30074309767453</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.774489979116277</v>
+        <v>45.53332649629801</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.69362488837301</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.312348321644369</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.28474765532389</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.097941884159</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.45862437253607</v>
       </c>
       <c r="N21">
-        <v>22.13851403877471</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.8819805025457</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>64.9109255413746</v>
+        <v>19.14765829870599</v>
       </c>
       <c r="C22">
-        <v>54.57840559780753</v>
+        <v>15.18167712084834</v>
       </c>
       <c r="D22">
-        <v>11.58113393608057</v>
+        <v>9.494423141248355</v>
       </c>
       <c r="E22">
-        <v>51.01420975514694</v>
+        <v>37.64497604152939</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.721153927572115</v>
+        <v>46.86947217351957</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.909429531029292</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.473715643236056</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.50148364060394</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.42777380571919</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.09235180220493</v>
       </c>
       <c r="N22">
-        <v>23.15735191993661</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.79258337060645</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62.40429422483567</v>
+        <v>18.79801909434212</v>
       </c>
       <c r="C23">
-        <v>52.3926733611608</v>
+        <v>14.8777203303959</v>
       </c>
       <c r="D23">
-        <v>11.15372366776823</v>
+        <v>9.310711250337704</v>
       </c>
       <c r="E23">
-        <v>48.6620030521039</v>
+        <v>36.93350185619165</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.751301039235635</v>
+        <v>46.22923102613457</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.795317021673831</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.384946491524977</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.40084919701771</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.28563265574394</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.76117930423134</v>
       </c>
       <c r="N23">
-        <v>22.50748463333153</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.84924076064489</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54.53047987172663</v>
+        <v>17.38403764537476</v>
       </c>
       <c r="C24">
-        <v>45.60132634669206</v>
+        <v>13.7208064990718</v>
       </c>
       <c r="D24">
-        <v>9.792490559817022</v>
+        <v>8.587400829130251</v>
       </c>
       <c r="E24">
-        <v>41.7234379085515</v>
+        <v>34.12769155088748</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.839435536120537</v>
+        <v>43.64405004922041</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.35479309081157</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.048943615704262</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.99741693960252</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.69411564609935</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.44696664435807</v>
       </c>
       <c r="N24">
-        <v>21.06678385434522</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.0510140558184</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>47.21552879154456</v>
+        <v>15.72576070657887</v>
       </c>
       <c r="C25">
-        <v>39.36493180684828</v>
+        <v>12.38888961730968</v>
       </c>
       <c r="D25">
-        <v>8.509593758642183</v>
+        <v>7.747439382257334</v>
       </c>
       <c r="E25">
-        <v>35.67646323307049</v>
+        <v>30.86230831045311</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.913310617192012</v>
+        <v>40.76100717148809</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.862927769217866</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.678110663881414</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.56744281359871</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.06072216752649</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.91534586841151</v>
       </c>
       <c r="N25">
-        <v>19.79868713976756</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.27291736092625</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.44139837502329</v>
+        <v>13.84438052144175</v>
       </c>
       <c r="C2">
-        <v>11.27130214657947</v>
+        <v>11.94863276916757</v>
       </c>
       <c r="D2">
-        <v>7.076360133595444</v>
+        <v>7.079064720753188</v>
       </c>
       <c r="E2">
-        <v>28.25008000541627</v>
+        <v>28.27343024071385</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.76485768443379</v>
+        <v>35.6883304503289</v>
       </c>
       <c r="H2">
-        <v>2.48694303557505</v>
+        <v>2.505130449480996</v>
       </c>
       <c r="I2">
-        <v>2.559830942890876</v>
+        <v>2.483158406842683</v>
       </c>
       <c r="J2">
-        <v>12.29554085861821</v>
+        <v>12.06477001357823</v>
       </c>
       <c r="K2">
-        <v>18.68777089770549</v>
+        <v>17.37361996474575</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.55962031919011</v>
       </c>
       <c r="M2">
-        <v>13.70130294451294</v>
+        <v>11.3015733983395</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.55884701667098</v>
       </c>
       <c r="P2">
-        <v>13.46236765408614</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.09445499623754</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.46818464663591</v>
+        <v>12.95675079927651</v>
       </c>
       <c r="C3">
-        <v>10.49901802424879</v>
+        <v>11.08880756284845</v>
       </c>
       <c r="D3">
-        <v>6.587634786267765</v>
+        <v>6.591813240641849</v>
       </c>
       <c r="E3">
-        <v>26.34461299385069</v>
+        <v>26.38323205964765</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.26239523351835</v>
+        <v>34.48227741125184</v>
       </c>
       <c r="H3">
-        <v>2.220476901268593</v>
+        <v>2.25072818729734</v>
       </c>
       <c r="I3">
-        <v>2.765517609993424</v>
+        <v>2.660042180084067</v>
       </c>
       <c r="J3">
-        <v>12.09211978219316</v>
+        <v>11.87665034831027</v>
       </c>
       <c r="K3">
-        <v>18.38788687781317</v>
+        <v>17.1914175289391</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.56224757033301</v>
       </c>
       <c r="M3">
-        <v>12.80793341176583</v>
+        <v>11.01409332481762</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.69353082082189</v>
       </c>
       <c r="P3">
-        <v>13.58018173510166</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.23180066084002</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83261523954652</v>
+        <v>12.37677572899567</v>
       </c>
       <c r="C4">
-        <v>10.0020695024787</v>
+        <v>10.53441798401019</v>
       </c>
       <c r="D4">
-        <v>6.277152100298598</v>
+        <v>6.280685123036091</v>
       </c>
       <c r="E4">
-        <v>25.10791640835334</v>
+        <v>25.1560326738932</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.3187967251796</v>
+        <v>33.72913001012576</v>
       </c>
       <c r="H4">
-        <v>2.051416705645477</v>
+        <v>2.0891933466582</v>
       </c>
       <c r="I4">
-        <v>2.896688553819612</v>
+        <v>2.773319912338961</v>
       </c>
       <c r="J4">
-        <v>11.96819333324651</v>
+        <v>11.75944460321807</v>
       </c>
       <c r="K4">
-        <v>18.20374078945827</v>
+        <v>17.07909039170657</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.55968194383832</v>
       </c>
       <c r="M4">
-        <v>12.22773809580573</v>
+        <v>10.85417962899223</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.13137328333956</v>
       </c>
       <c r="P4">
-        <v>13.65321837432311</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.31665766488196</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.55757778468604</v>
+        <v>12.12550666204697</v>
       </c>
       <c r="C5">
-        <v>9.801295723298406</v>
+        <v>10.30918211543477</v>
       </c>
       <c r="D5">
-        <v>6.164097203971878</v>
+        <v>6.167768522641113</v>
       </c>
       <c r="E5">
-        <v>24.58678859778876</v>
+        <v>24.6388453356805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.90681596691346</v>
+        <v>33.39786004115238</v>
       </c>
       <c r="H5">
-        <v>1.980900618259832</v>
+        <v>2.021798290599145</v>
       </c>
       <c r="I5">
-        <v>2.954459691934267</v>
+        <v>2.824232472112197</v>
       </c>
       <c r="J5">
-        <v>11.91364811758866</v>
+        <v>11.70719582228208</v>
       </c>
       <c r="K5">
-        <v>18.11912418618482</v>
+        <v>17.02438012709193</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.55020534845629</v>
       </c>
       <c r="M5">
-        <v>11.98169615095766</v>
+        <v>10.78742166108236</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.89298276428531</v>
       </c>
       <c r="P5">
-        <v>13.68074467119711</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.34939680050619</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50347901530253</v>
+        <v>12.07580465081351</v>
       </c>
       <c r="C6">
-        <v>9.776782453520234</v>
+        <v>10.28039803952509</v>
       </c>
       <c r="D6">
-        <v>6.145149500935416</v>
+        <v>6.148843535781493</v>
       </c>
       <c r="E6">
-        <v>24.49888934336587</v>
+        <v>24.55163089974084</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.81049611186863</v>
+        <v>33.31643910605192</v>
       </c>
       <c r="H6">
-        <v>1.968833440321538</v>
+        <v>2.01027743914681</v>
       </c>
       <c r="I6">
-        <v>2.968081806039971</v>
+        <v>2.837362421456769</v>
       </c>
       <c r="J6">
-        <v>11.89933600281561</v>
+        <v>11.6935026001535</v>
       </c>
       <c r="K6">
-        <v>18.09333371971028</v>
+        <v>17.00451052427515</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.53957084846213</v>
       </c>
       <c r="M6">
-        <v>11.93837545224844</v>
+        <v>10.76925740648329</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.85104903203496</v>
       </c>
       <c r="P6">
-        <v>13.68237751907239</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.35242218491901</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.80803261638671</v>
+        <v>12.34837996353892</v>
       </c>
       <c r="C7">
-        <v>10.02380109566744</v>
+        <v>10.54161631750229</v>
       </c>
       <c r="D7">
-        <v>6.275568898999848</v>
+        <v>6.279064768205123</v>
       </c>
       <c r="E7">
-        <v>25.10002717301409</v>
+        <v>25.14764692168678</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.23879034404132</v>
+        <v>33.72807645816508</v>
       </c>
       <c r="H7">
-        <v>2.049735589662383</v>
+        <v>2.087137631588161</v>
       </c>
       <c r="I7">
-        <v>2.907989169092347</v>
+        <v>2.787007740341223</v>
       </c>
       <c r="J7">
-        <v>11.95314396393572</v>
+        <v>11.69088616521879</v>
       </c>
       <c r="K7">
-        <v>18.17069670621581</v>
+        <v>17.03579846112904</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.52453325652671</v>
       </c>
       <c r="M7">
-        <v>12.21915547287029</v>
+        <v>10.8235850450387</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.11544970243211</v>
       </c>
       <c r="P7">
-        <v>13.64557311202156</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.30719291738675</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.08815718721025</v>
+        <v>13.50537669239768</v>
       </c>
       <c r="C8">
-        <v>11.03936856276986</v>
+        <v>11.64468758530869</v>
       </c>
       <c r="D8">
-        <v>6.911196122713384</v>
+        <v>6.914229748431818</v>
       </c>
       <c r="E8">
-        <v>27.60566936353434</v>
+        <v>27.63243303783384</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.15745662849275</v>
+        <v>35.42317587455338</v>
       </c>
       <c r="H8">
-        <v>2.395243174097102</v>
+        <v>2.416147757254927</v>
       </c>
       <c r="I8">
-        <v>2.643537756884867</v>
+        <v>2.561579241927754</v>
       </c>
       <c r="J8">
-        <v>12.20668622990459</v>
+        <v>11.80682186430934</v>
       </c>
       <c r="K8">
-        <v>18.54302744573052</v>
+        <v>17.22988927372961</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.49769742581959</v>
       </c>
       <c r="M8">
-        <v>13.39330971228519</v>
+        <v>11.13906097360141</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.23698489764183</v>
       </c>
       <c r="P8">
-        <v>13.49240839167722</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.12261380733977</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.33290214264835</v>
+        <v>15.54944387430994</v>
       </c>
       <c r="C9">
-        <v>12.81386196533087</v>
+        <v>13.61278953841814</v>
       </c>
       <c r="D9">
-        <v>8.038705241919436</v>
+        <v>8.037170196461076</v>
       </c>
       <c r="E9">
-        <v>31.9961912302034</v>
+        <v>31.98438175605916</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.86131873162623</v>
+        <v>38.47961380416475</v>
       </c>
       <c r="H9">
-        <v>3.032173168692201</v>
+        <v>3.023126941717497</v>
       </c>
       <c r="I9">
-        <v>2.800131753632053</v>
+        <v>2.820713148542825</v>
       </c>
       <c r="J9">
-        <v>12.73564328253798</v>
+        <v>12.24082255798484</v>
       </c>
       <c r="K9">
-        <v>19.32734818754152</v>
+        <v>17.70676416547247</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.49165392371898</v>
       </c>
       <c r="M9">
-        <v>15.4545764625817</v>
+        <v>11.95159013539519</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.22886043278504</v>
       </c>
       <c r="P9">
-        <v>13.21146873566443</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.78753599839631</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.75183785596229</v>
+        <v>16.82072532173803</v>
       </c>
       <c r="C10">
-        <v>13.94200714069243</v>
+        <v>14.79497059562297</v>
       </c>
       <c r="D10">
-        <v>8.78720775699067</v>
+        <v>8.781201441652502</v>
       </c>
       <c r="E10">
-        <v>34.0271704731441</v>
+        <v>33.98436508231837</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>44.07357798361066</v>
+        <v>40.67142718454402</v>
       </c>
       <c r="H10">
-        <v>3.439300849760127</v>
+        <v>3.40712502112159</v>
       </c>
       <c r="I10">
-        <v>3.128248541878649</v>
+        <v>3.100412222051943</v>
       </c>
       <c r="J10">
-        <v>13.05003114288475</v>
+        <v>12.19562727705555</v>
       </c>
       <c r="K10">
-        <v>19.77005522064181</v>
+        <v>17.8759028546678</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.33845385127032</v>
       </c>
       <c r="M10">
-        <v>16.76219396498228</v>
+        <v>12.46195485689887</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.4569665974136</v>
       </c>
       <c r="P10">
-        <v>12.97293667816004</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.50222567419786</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.96420511176045</v>
+        <v>17.00873493793824</v>
       </c>
       <c r="C11">
-        <v>13.78963522419418</v>
+        <v>14.47449565869763</v>
       </c>
       <c r="D11">
-        <v>9.100194139650135</v>
+        <v>9.092544298956438</v>
       </c>
       <c r="E11">
-        <v>27.38494189865489</v>
+        <v>27.33141963825191</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>41.96339657084799</v>
+        <v>39.49276744690111</v>
       </c>
       <c r="H11">
-        <v>3.893785364313743</v>
+        <v>3.860721677286709</v>
       </c>
       <c r="I11">
-        <v>3.194478598046204</v>
+        <v>3.154903297884119</v>
       </c>
       <c r="J11">
-        <v>12.56063350186652</v>
+        <v>11.17593702831948</v>
       </c>
       <c r="K11">
-        <v>18.92158411262387</v>
+        <v>16.97265622237828</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.57173952667259</v>
       </c>
       <c r="M11">
-        <v>16.85434641999361</v>
+        <v>11.90280222859203</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.47963313045446</v>
       </c>
       <c r="P11">
-        <v>12.59942687817852</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.18645147914015</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.88148486911637</v>
+        <v>16.94836336610154</v>
       </c>
       <c r="C12">
-        <v>13.40767991455245</v>
+        <v>13.97576789891885</v>
       </c>
       <c r="D12">
-        <v>9.212371484149431</v>
+        <v>9.204518437675992</v>
       </c>
       <c r="E12">
-        <v>21.34961239457925</v>
+        <v>21.29244119286954</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.78862785715309</v>
+        <v>37.87468972293276</v>
       </c>
       <c r="H12">
-        <v>4.822726639892962</v>
+        <v>4.797071581843288</v>
       </c>
       <c r="I12">
-        <v>3.186626677500739</v>
+        <v>3.146377266018956</v>
       </c>
       <c r="J12">
-        <v>12.0956223203207</v>
+        <v>10.54090954378449</v>
       </c>
       <c r="K12">
-        <v>18.15312407028834</v>
+        <v>16.26145470206484</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.03258800232446</v>
       </c>
       <c r="M12">
-        <v>16.67560258493218</v>
+        <v>11.38015369261086</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.27884277197803</v>
       </c>
       <c r="P12">
-        <v>12.36857503372351</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.02614321154888</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54086699813998</v>
+        <v>16.67924423579917</v>
       </c>
       <c r="C13">
-        <v>12.84244854402551</v>
+        <v>13.34645955701431</v>
       </c>
       <c r="D13">
-        <v>9.180420839029006</v>
+        <v>9.173657095837195</v>
       </c>
       <c r="E13">
-        <v>15.24854797838192</v>
+        <v>15.19280095176071</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>37.28353096168436</v>
+        <v>35.52289903729419</v>
       </c>
       <c r="H13">
-        <v>5.941999937799293</v>
+        <v>5.925004749896091</v>
       </c>
       <c r="I13">
-        <v>3.124980307822746</v>
+        <v>3.095331241691975</v>
       </c>
       <c r="J13">
-        <v>11.59625627315764</v>
+        <v>10.21996876815497</v>
       </c>
       <c r="K13">
-        <v>17.34754101959105</v>
+        <v>15.63379336319909</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.60921911700302</v>
       </c>
       <c r="M13">
-        <v>16.26699883156871</v>
+        <v>10.84153488288464</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.89766659194878</v>
       </c>
       <c r="P13">
-        <v>12.22210708498531</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.96115732887237</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17705414114477</v>
+        <v>16.38841469769955</v>
       </c>
       <c r="C14">
-        <v>12.36323679761001</v>
+        <v>12.84343678898362</v>
       </c>
       <c r="D14">
-        <v>9.092730885077971</v>
+        <v>9.087265986788557</v>
       </c>
       <c r="E14">
-        <v>10.92469418211993</v>
+        <v>10.87089353051425</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>35.33968159599146</v>
+        <v>33.51521430769616</v>
       </c>
       <c r="H14">
-        <v>6.79526310374655</v>
+        <v>6.783621946296295</v>
       </c>
       <c r="I14">
-        <v>3.059494471011276</v>
+        <v>3.042463273146046</v>
       </c>
       <c r="J14">
-        <v>11.22712504865513</v>
+        <v>10.11402883812724</v>
       </c>
       <c r="K14">
-        <v>16.75943629744878</v>
+        <v>15.22170602957368</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.35392320391899</v>
       </c>
       <c r="M14">
-        <v>15.87151587880689</v>
+        <v>10.45084872220995</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.5433761658755</v>
       </c>
       <c r="P14">
-        <v>12.15982973428218</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.95516334741349</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.02505660677661</v>
+        <v>16.26460054960215</v>
       </c>
       <c r="C15">
-        <v>12.21125799113503</v>
+        <v>12.69458142078227</v>
       </c>
       <c r="D15">
-        <v>9.040167725177474</v>
+        <v>9.035282390757754</v>
       </c>
       <c r="E15">
-        <v>9.852875053213664</v>
+        <v>9.801543062046559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.77062820929699</v>
+        <v>32.85988921725608</v>
       </c>
       <c r="H15">
-        <v>6.990763122387992</v>
+        <v>6.980728984220811</v>
       </c>
       <c r="I15">
-        <v>3.032357256830269</v>
+        <v>3.0213864013068</v>
       </c>
       <c r="J15">
-        <v>11.12613453126962</v>
+        <v>10.13525519826121</v>
       </c>
       <c r="K15">
-        <v>16.59892126876194</v>
+        <v>15.12647314546498</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.30412037555191</v>
       </c>
       <c r="M15">
-        <v>15.72218322061611</v>
+        <v>10.34452010730859</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.41377937382401</v>
       </c>
       <c r="P15">
-        <v>12.15818520608678</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.96770843626695</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.47871251843142</v>
+        <v>15.80603624558853</v>
       </c>
       <c r="C16">
-        <v>11.82803872801518</v>
+        <v>12.38537778486075</v>
       </c>
       <c r="D16">
-        <v>8.739268254092099</v>
+        <v>8.736762963528061</v>
       </c>
       <c r="E16">
-        <v>9.709569254302899</v>
+        <v>9.682345090495248</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.17024199466947</v>
+        <v>31.68385042453506</v>
       </c>
       <c r="H16">
-        <v>6.710670319497167</v>
+        <v>6.705400084094713</v>
       </c>
       <c r="I16">
-        <v>2.909118263616713</v>
+        <v>2.921972332749268</v>
       </c>
       <c r="J16">
-        <v>11.07559387389209</v>
+        <v>10.57304662108234</v>
       </c>
       <c r="K16">
-        <v>16.5418683711371</v>
+        <v>15.25000552960288</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.47346093095366</v>
       </c>
       <c r="M16">
-        <v>15.23712087582878</v>
+        <v>10.30521086028618</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.01041934261792</v>
       </c>
       <c r="P16">
-        <v>12.28490387221584</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.0983422145515</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25265069909555</v>
+        <v>15.60153170260893</v>
       </c>
       <c r="C17">
-        <v>11.79723986428839</v>
+        <v>12.41083452712933</v>
       </c>
       <c r="D17">
-        <v>8.552174521582367</v>
+        <v>8.550687418282369</v>
       </c>
       <c r="E17">
-        <v>11.99796371262588</v>
+        <v>11.98341732151546</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.77635886218481</v>
+        <v>31.97689727780094</v>
       </c>
       <c r="H17">
-        <v>5.989335750943613</v>
+        <v>5.98581730378151</v>
       </c>
       <c r="I17">
-        <v>2.848565862841872</v>
+        <v>2.872464616867354</v>
       </c>
       <c r="J17">
-        <v>11.23515242014536</v>
+        <v>10.91988387945821</v>
       </c>
       <c r="K17">
-        <v>16.81234539865344</v>
+        <v>15.55136414833567</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.73794301373888</v>
       </c>
       <c r="M17">
-        <v>15.07729110577398</v>
+        <v>10.46954653797794</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.88229402539291</v>
       </c>
       <c r="P17">
-        <v>12.41328986015815</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.20508069716428</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.30142224710948</v>
+        <v>15.62388268762315</v>
       </c>
       <c r="C18">
-        <v>12.06162787980859</v>
+        <v>12.74417119391783</v>
       </c>
       <c r="D18">
-        <v>8.4459947999198</v>
+        <v>8.444640278191249</v>
       </c>
       <c r="E18">
-        <v>16.79221545330857</v>
+        <v>16.78076982598301</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>36.54031549981385</v>
+        <v>33.47017542106492</v>
       </c>
       <c r="H18">
-        <v>4.875244271917014</v>
+        <v>4.871166872341033</v>
       </c>
       <c r="I18">
-        <v>2.835662346341624</v>
+        <v>2.860065958443341</v>
       </c>
       <c r="J18">
-        <v>11.60327829021324</v>
+        <v>11.32911520795759</v>
       </c>
       <c r="K18">
-        <v>17.42059421288394</v>
+        <v>16.08918872194678</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.15500950895968</v>
       </c>
       <c r="M18">
-        <v>15.19360485740812</v>
+        <v>10.85950614147969</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.00245996303284</v>
       </c>
       <c r="P18">
-        <v>12.5742112620497</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.31935079777857</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53919157917094</v>
+        <v>15.8038803042712</v>
       </c>
       <c r="C19">
-        <v>12.58267034840919</v>
+        <v>13.34613402293885</v>
       </c>
       <c r="D19">
-        <v>8.414556716985079</v>
+        <v>8.412649310909819</v>
       </c>
       <c r="E19">
-        <v>23.22142860421514</v>
+        <v>23.20678132593862</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38.96768133788174</v>
+        <v>35.62786273060973</v>
       </c>
       <c r="H19">
-        <v>3.760344327982307</v>
+        <v>3.752352072826035</v>
       </c>
       <c r="I19">
-        <v>2.876086894735677</v>
+        <v>2.894775129460328</v>
       </c>
       <c r="J19">
-        <v>12.0891940509232</v>
+        <v>11.77685090612786</v>
       </c>
       <c r="K19">
-        <v>18.20950766204399</v>
+        <v>16.74642723154209</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.64438285388679</v>
       </c>
       <c r="M19">
-        <v>15.51897666224878</v>
+        <v>11.37252784606409</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.31451151471618</v>
       </c>
       <c r="P19">
-        <v>12.75832928683705</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.43990412710378</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.33845202572779</v>
+        <v>16.4624485878223</v>
       </c>
       <c r="C20">
-        <v>13.70607905302158</v>
+        <v>14.58112511451981</v>
       </c>
       <c r="D20">
-        <v>8.595458349396127</v>
+        <v>8.591000260679369</v>
       </c>
       <c r="E20">
-        <v>33.4633679877013</v>
+        <v>33.43100562040649</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.28889392696649</v>
+        <v>39.67089869939008</v>
       </c>
       <c r="H20">
-        <v>3.329192472762631</v>
+        <v>3.304735183669444</v>
       </c>
       <c r="I20">
-        <v>3.050484710058049</v>
+        <v>3.041370703693575</v>
       </c>
       <c r="J20">
-        <v>12.92313785809416</v>
+        <v>12.34502745928574</v>
       </c>
       <c r="K20">
-        <v>19.55700088885825</v>
+        <v>17.78733192157281</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.34725642780337</v>
       </c>
       <c r="M20">
-        <v>16.41285560417181</v>
+        <v>12.28988388614926</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.15036327114758</v>
       </c>
       <c r="P20">
-        <v>13.01034925395883</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.56894895453825</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.45374478554637</v>
+        <v>17.38119782578926</v>
       </c>
       <c r="C21">
-        <v>14.64720747427203</v>
+        <v>15.38733967628946</v>
       </c>
       <c r="D21">
-        <v>9.14762897038122</v>
+        <v>9.137817374453967</v>
       </c>
       <c r="E21">
-        <v>36.30074309767453</v>
+        <v>36.23311162982034</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.53332649629801</v>
+        <v>43.04589388285542</v>
       </c>
       <c r="H21">
-        <v>3.69362488837301</v>
+        <v>3.643074176351793</v>
       </c>
       <c r="I21">
-        <v>3.312348321644369</v>
+        <v>3.252561179680723</v>
       </c>
       <c r="J21">
-        <v>13.28474765532389</v>
+        <v>11.50484482518159</v>
       </c>
       <c r="K21">
-        <v>20.097941884159</v>
+        <v>17.856253691736</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.18852883560194</v>
       </c>
       <c r="M21">
-        <v>17.45862437253607</v>
+        <v>12.64275121661242</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.02356783840315</v>
       </c>
       <c r="P21">
-        <v>12.8819805025457</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.33096771692613</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.14765829870599</v>
+        <v>17.95029109512933</v>
       </c>
       <c r="C22">
-        <v>15.18167712084834</v>
+        <v>15.82089975303124</v>
       </c>
       <c r="D22">
-        <v>9.494423141248355</v>
+        <v>9.480859727889786</v>
       </c>
       <c r="E22">
-        <v>37.64497604152939</v>
+        <v>37.55425348306012</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.86947217351957</v>
+        <v>45.21092819708441</v>
       </c>
       <c r="H22">
-        <v>3.909429531029292</v>
+        <v>3.842209913380553</v>
       </c>
       <c r="I22">
-        <v>3.473715643236056</v>
+        <v>3.38025081107481</v>
       </c>
       <c r="J22">
-        <v>13.50148364060394</v>
+        <v>10.90100268855225</v>
       </c>
       <c r="K22">
-        <v>20.42777380571919</v>
+        <v>17.86898668814522</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.0614619651203</v>
       </c>
       <c r="M22">
-        <v>18.09235180220493</v>
+        <v>12.85268140821332</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.54273230311468</v>
       </c>
       <c r="P22">
-        <v>12.79258337060645</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.16845091621631</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.79801909434212</v>
+        <v>17.67593317896126</v>
       </c>
       <c r="C23">
-        <v>14.8777203303959</v>
+        <v>15.59668196155879</v>
       </c>
       <c r="D23">
-        <v>9.310711250337704</v>
+        <v>9.299329260853723</v>
       </c>
       <c r="E23">
-        <v>36.93350185619165</v>
+        <v>36.85614433673069</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.22923102613457</v>
+        <v>43.96009805628689</v>
       </c>
       <c r="H23">
-        <v>3.795317021673831</v>
+        <v>3.737747914982384</v>
       </c>
       <c r="I23">
-        <v>3.384946491524977</v>
+        <v>3.309222984306371</v>
       </c>
       <c r="J23">
-        <v>13.40084919701771</v>
+        <v>11.35477396341585</v>
       </c>
       <c r="K23">
-        <v>20.28563265574394</v>
+        <v>17.92468103495248</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.17268600854975</v>
       </c>
       <c r="M23">
-        <v>17.76117930423134</v>
+        <v>12.79117833282665</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.28693539114001</v>
       </c>
       <c r="P23">
-        <v>12.84924076064489</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.26889536849427</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.38403764537476</v>
+        <v>16.50182784088445</v>
       </c>
       <c r="C24">
-        <v>13.7208064990718</v>
+        <v>14.60534942104983</v>
       </c>
       <c r="D24">
-        <v>8.587400829130251</v>
+        <v>8.582871660982223</v>
       </c>
       <c r="E24">
-        <v>34.12769155088748</v>
+        <v>34.0947663091613</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.64405004922041</v>
+        <v>39.98572952209997</v>
       </c>
       <c r="H24">
-        <v>3.35479309081157</v>
+        <v>3.329872765542767</v>
       </c>
       <c r="I24">
-        <v>3.048943615704262</v>
+        <v>3.036828320904118</v>
       </c>
       <c r="J24">
-        <v>12.99741693960252</v>
+        <v>12.42074046447306</v>
       </c>
       <c r="K24">
-        <v>19.69411564609935</v>
+        <v>17.9086694349451</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.43906025977194</v>
       </c>
       <c r="M24">
-        <v>16.44696664435807</v>
+        <v>12.38224147836639</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.18368089037527</v>
       </c>
       <c r="P24">
-        <v>13.0510140558184</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.59883696159308</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72576070657887</v>
+        <v>15.00197870851746</v>
       </c>
       <c r="C25">
-        <v>12.38888961730968</v>
+        <v>13.15414568107394</v>
       </c>
       <c r="D25">
-        <v>7.747439382257334</v>
+        <v>7.747396587441459</v>
       </c>
       <c r="E25">
-        <v>30.86230831045311</v>
+        <v>30.86196832821545</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.76100717148809</v>
+        <v>37.45548327138798</v>
       </c>
       <c r="H25">
-        <v>2.862927769217866</v>
+        <v>2.862665727629251</v>
       </c>
       <c r="I25">
-        <v>2.678110663881414</v>
+        <v>2.719398359918872</v>
       </c>
       <c r="J25">
-        <v>12.56744281359871</v>
+        <v>12.1756377392707</v>
       </c>
       <c r="K25">
-        <v>19.06072216752649</v>
+        <v>17.5460750546578</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.47289949892621</v>
       </c>
       <c r="M25">
-        <v>14.91534586841151</v>
+        <v>11.69535039017619</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.71753853554689</v>
       </c>
       <c r="P25">
-        <v>13.27291736092625</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.87153618425725</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
